--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,105 +665,118 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>23300</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23800</v>
+      </c>
+      <c r="F8" s="3">
         <v>25500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>20200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>19700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>19800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>19500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>19400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>19300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>17400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>12600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>11900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -800,8 +813,14 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,8 +857,14 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -854,8 +879,10 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -892,8 +919,14 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,8 +963,14 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -968,19 +1007,25 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E15" s="3">
         <v>-400</v>
       </c>
-      <c r="E15" s="3">
-        <v>-200</v>
-      </c>
       <c r="F15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="G15" s="3">
         <v>-200</v>
@@ -995,19 +1040,25 @@
         <v>-200</v>
       </c>
       <c r="K15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M15" s="3">
         <v>-100</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1019,84 +1070,98 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F17" s="3">
         <v>8200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>5300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>4500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="F18" s="3">
         <v>17300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>14900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>14600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>14800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>14700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>15800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>10300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>9900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1111,84 +1176,98 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-9000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-4700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-3600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>9000</v>
+        <v>9600</v>
       </c>
       <c r="E21" s="3">
-        <v>8100</v>
+        <v>10500</v>
       </c>
       <c r="F21" s="3">
         <v>9000</v>
       </c>
       <c r="G21" s="3">
+        <v>8100</v>
+      </c>
+      <c r="H21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I21" s="3">
         <v>7900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L21" s="3">
         <v>9800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>6700</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,84 +1304,102 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F23" s="3">
         <v>8400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>7700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>8600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>7500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>9300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>6200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>5600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>6300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F24" s="3">
         <v>1700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1600</v>
       </c>
       <c r="I24" s="3">
         <v>1400</v>
       </c>
       <c r="J24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L24" s="3">
         <v>2200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1800</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1339,84 +1436,102 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F26" s="3">
         <v>6700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>6000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>6600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>6100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>5900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>6400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>3800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>4200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F27" s="3">
         <v>6700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>6000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>6600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>6100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>5900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>6400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>3800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>4200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1453,37 +1568,43 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3">
+        <v>0</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1491,8 +1612,14 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1529,8 +1656,14 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1567,84 +1700,102 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>8000</v>
+      </c>
+      <c r="F32" s="3">
         <v>9000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>4700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>3600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F33" s="3">
         <v>6700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>6000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>6600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>6100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>5900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>6400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>3800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>4200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1681,89 +1832,107 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F35" s="3">
         <v>6700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>6000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>6600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>6100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>5900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>6400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>3800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>4200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1778,8 +1947,10 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1794,84 +1965,98 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>33800</v>
+      </c>
+      <c r="F41" s="3">
         <v>45700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>19200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>29500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>41400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>25300</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L41" s="3">
         <v>20700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>37900</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>97900</v>
+      </c>
+      <c r="F42" s="3">
         <v>104500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>137600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>110400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>96300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>37800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L42" s="3">
         <v>44500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>92800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1908,8 +2093,14 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1946,8 +2137,14 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1984,8 +2181,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2022,8 +2225,14 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2060,84 +2269,102 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>36600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>35300</v>
+      </c>
+      <c r="F48" s="3">
         <v>32300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>28100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>26900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>24500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>23700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>24300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>18600</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>52800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F49" s="3">
         <v>54200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>20000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>20200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>20300</v>
-      </c>
-      <c r="H49" s="3">
-        <v>20400</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="J49" s="3">
         <v>20400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L49" s="3">
+        <v>20400</v>
+      </c>
+      <c r="M49" s="3">
         <v>20700</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2174,8 +2401,14 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2212,46 +2445,58 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2288,46 +2533,58 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2210200</v>
+      </c>
+      <c r="F54" s="3">
         <v>2163500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1806500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1805400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1793200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1735800</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L54" s="3">
         <v>1703600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1753400</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2342,8 +2599,10 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2358,8 +2617,10 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2396,8 +2657,14 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2434,46 +2701,58 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>1100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2510,46 +2789,58 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>67400</v>
+      </c>
+      <c r="E61" s="3">
         <v>68400</v>
       </c>
-      <c r="E61" s="3">
-        <v>11500</v>
-      </c>
       <c r="F61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="G61" s="3">
         <v>11500</v>
       </c>
       <c r="H61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J61" s="3">
         <v>59500</v>
       </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>20000</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2586,8 +2877,14 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2624,8 +2921,14 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2662,8 +2965,14 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2700,46 +3009,58 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1962600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1980000</v>
+      </c>
+      <c r="F66" s="3">
         <v>1938200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1621000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1626200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>1618800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1566600</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L66" s="3">
         <v>1541800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1591700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2754,8 +3075,10 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2792,8 +3115,14 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2830,8 +3159,14 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2868,8 +3203,14 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2906,46 +3247,58 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>195300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>189500</v>
+      </c>
+      <c r="F72" s="3">
         <v>183600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>178300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>173600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>168400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>162100</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L72" s="3">
         <v>151900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>145900</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2982,8 +3335,14 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3020,8 +3379,14 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3058,46 +3423,58 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>237700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>230200</v>
+      </c>
+      <c r="F76" s="3">
         <v>225300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>185400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>179200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>174300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>169100</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L76" s="3">
         <v>161800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>161700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3134,89 +3511,107 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F81" s="3">
         <v>6700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>6000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>6600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>6100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>5900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>6400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>3800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>4200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3231,46 +3626,54 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
+        <v>800</v>
+      </c>
+      <c r="F83" s="3">
         <v>700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>500</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J83" s="3">
+      <c r="J83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3307,8 +3710,14 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3345,8 +3754,14 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3383,8 +3798,14 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3421,8 +3842,14 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3459,46 +3886,58 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>13500</v>
+      </c>
+      <c r="F89" s="3">
         <v>6900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>3600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>12900</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3">
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>14000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3513,46 +3952,54 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="J91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L91" s="3">
         <v>-5600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3589,8 +4036,14 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3627,46 +4080,58 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-82700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-38200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>18700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-3900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>16300</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
         <v>-14200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>16400</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3681,8 +4146,10 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3690,37 +4157,43 @@
         <v>-1400</v>
       </c>
       <c r="E96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="F96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G96" s="3">
         <v>-1300</v>
       </c>
       <c r="H96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="I96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="M96" s="3">
         <v>-1100</v>
       </c>
-      <c r="L96" s="3">
-        <v>0</v>
-      </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3757,8 +4230,14 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3795,8 +4274,14 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3833,46 +4318,58 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E100" s="3">
+        <v>37200</v>
+      </c>
+      <c r="F100" s="3">
         <v>23800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>6800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>43200</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
         <v>-50100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>38900</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3909,42 +4406,54 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="F102" s="3">
         <v>-7500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>16700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>1400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>72400</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3">
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
         <v>-64200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>67700</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E8" s="3">
         <v>23300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>19700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>17400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>12600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>11900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +826,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +873,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,8 +894,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -925,8 +939,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +986,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,22 +1033,25 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E15" s="3">
         <v>-300</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-400</v>
       </c>
       <c r="F15" s="3">
         <v>-400</v>
       </c>
       <c r="G15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="H15" s="3">
         <v>-200</v>
@@ -1046,19 +1069,22 @@
         <v>-200</v>
       </c>
       <c r="M15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N15" s="3">
         <v>-100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,52 +1098,56 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E17" s="3">
         <v>5600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1128,40 +1158,43 @@
         <v>17700</v>
       </c>
       <c r="F18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="G18" s="3">
         <v>17300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>14900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>15800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>10300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>9900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,96 +1211,103 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-8800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-9000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-3600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E21" s="3">
         <v>9600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>10500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>8100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>7900</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M21" s="3">
         <v>9800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>6700</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,96 +1350,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E23" s="3">
         <v>8800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>9700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>7700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>9300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>6200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>5600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2200</v>
-      </c>
-      <c r="F24" s="3">
-        <v>1700</v>
       </c>
       <c r="G24" s="3">
         <v>1700</v>
       </c>
       <c r="H24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I24" s="3">
         <v>2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1800</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2100</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1491,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E26" s="3">
         <v>7300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>6700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>5900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>3300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>4200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>7300</v>
+        <v>8200</v>
       </c>
       <c r="E27" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F27" s="3">
         <v>7500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>6700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>3300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>4200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,19 +1632,22 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
@@ -1594,11 +1655,11 @@
       <c r="H29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
@@ -1606,8 +1667,8 @@
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1618,8 +1679,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1726,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1773,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E32" s="3">
         <v>8800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>9000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>3600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>7300</v>
+        <v>8200</v>
       </c>
       <c r="E33" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F33" s="3">
         <v>7500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>6700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>5900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>3300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>4200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1914,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>7300</v>
+        <v>8200</v>
       </c>
       <c r="E35" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F35" s="3">
         <v>7500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>6700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>5900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>3300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>4200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2034,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,96 +2053,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E41" s="3">
         <v>27700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>33800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>19200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>41400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>25300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L41" s="3">
+      <c r="L41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M41" s="3">
         <v>20700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>37900</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>195600</v>
+      </c>
+      <c r="E42" s="3">
         <v>75100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>97900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>104500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>137600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>110400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>96300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>37800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M42" s="3">
         <v>44500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>92800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2099,8 +2192,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,8 +2239,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2187,8 +2286,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2231,8 +2333,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,96 +2380,105 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>39600</v>
+      </c>
+      <c r="E48" s="3">
         <v>36600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>35300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>32300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>26900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>24500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>23700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>24300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>18600</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>65600</v>
+      </c>
+      <c r="E49" s="3">
         <v>52800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>53100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>20000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="L49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20700</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2521,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2568,11 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2477,26 +2597,29 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2662,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2657900</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2210200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2163500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1806500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1805400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1793200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1735800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L54" s="3">
+      <c r="L54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M54" s="3">
         <v>1703600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1753400</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2730,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2749,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2663,8 +2794,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,8 +2841,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2733,26 +2870,29 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2795,22 +2935,25 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>43700</v>
+      </c>
+      <c r="E61" s="3">
         <v>67400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>68400</v>
       </c>
       <c r="F61" s="3">
         <v>68400</v>
       </c>
       <c r="G61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="H61" s="3">
         <v>11500</v>
@@ -2819,28 +2962,31 @@
         <v>11500</v>
       </c>
       <c r="J61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K61" s="3">
         <v>59500</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>20000</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3029,11 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3076,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3123,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3170,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2381800</v>
+      </c>
+      <c r="E66" s="3">
         <v>1962600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1980000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1938200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1621000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1626200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1618800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1566600</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M66" s="3">
         <v>1541800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1591700</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3238,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3283,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3330,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3377,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3424,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>202100</v>
+      </c>
+      <c r="E72" s="3">
         <v>195300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>189500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>183600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>178300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>173600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>168400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>162100</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M72" s="3">
         <v>151900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>145900</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3518,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3565,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3612,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>276100</v>
+      </c>
+      <c r="E76" s="3">
         <v>237700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>230200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>225300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>185400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>179200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>174300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>169100</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M76" s="3">
         <v>161800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>161700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3706,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>7300</v>
+        <v>8200</v>
       </c>
       <c r="E81" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F81" s="3">
         <v>7500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>6700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>5900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>3300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>4200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,43 +3826,44 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E83" s="3">
         <v>800</v>
       </c>
       <c r="F83" s="3">
+        <v>800</v>
+      </c>
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>400</v>
       </c>
       <c r="H83" s="3">
         <v>400</v>
       </c>
       <c r="I83" s="3">
+        <v>400</v>
+      </c>
+      <c r="J83" s="3">
         <v>500</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L83" s="3">
-        <v>500</v>
+      <c r="L83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
+      <c r="N83" s="3">
+        <v>500</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
@@ -3672,8 +3871,11 @@
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +3918,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +3965,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4012,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4059,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4106,58 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-2100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>13500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>6900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>12900</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>14000</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,8 +4174,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3963,43 +4184,46 @@
         <v>-1800</v>
       </c>
       <c r="E91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L91" s="3">
+      <c r="L91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M91" s="3">
         <v>-5600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4266,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4313,58 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-125500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-18600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>18700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-3900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>16300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
         <v>-14200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16400</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,13 +4381,14 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1400</v>
+        <v>-1500</v>
       </c>
       <c r="E96" s="3">
         <v>-1400</v>
@@ -4163,7 +4397,7 @@
         <v>-1400</v>
       </c>
       <c r="G96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>-1300</v>
@@ -4172,19 +4406,19 @@
         <v>-1300</v>
       </c>
       <c r="J96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-1100</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
@@ -4192,8 +4426,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4473,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4520,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4567,58 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>227500</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>37200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>23800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>6800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>43200</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
         <v>-50100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>38900</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4661,54 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>123100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-31900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-7500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>16700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>1400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>72400</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
         <v>-64200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>67700</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,132 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25900</v>
+      </c>
+      <c r="E8" s="3">
         <v>24400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>23300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>19700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>17400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>12600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>11900</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,16 +1068,16 @@
         <v>-400</v>
       </c>
       <c r="E15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F15" s="3">
         <v>-300</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-400</v>
       </c>
       <c r="G15" s="3">
         <v>-400</v>
       </c>
       <c r="H15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="I15" s="3">
         <v>-200</v>
@@ -1072,19 +1095,22 @@
         <v>-200</v>
       </c>
       <c r="N15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O15" s="3">
         <v>-100</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,60 +1125,64 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E17" s="3">
         <v>6700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>17700</v>
+        <v>21500</v>
       </c>
       <c r="E18" s="3">
         <v>17700</v>
@@ -1161,40 +1191,43 @@
         <v>17700</v>
       </c>
       <c r="G18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="H18" s="3">
         <v>17300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>15800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>10300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>9900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,102 +1245,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7100</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-8800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-9000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E21" s="3">
         <v>11700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>9600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>10500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>8100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>7900</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N21" s="3">
         <v>9800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>6700</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1353,102 +1393,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E23" s="3">
         <v>11000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>8800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>9700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>7700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>6200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>5600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="3">
         <v>2700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2200</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1700</v>
       </c>
       <c r="H24" s="3">
         <v>1700</v>
       </c>
       <c r="I24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J24" s="3">
         <v>2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>1400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1800</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2100</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E26" s="3">
         <v>8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>7300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>6700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>5900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>4200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E27" s="3">
         <v>8200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>7200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>6700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>4200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1646,11 +1707,11 @@
       <c r="E29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>5</v>
@@ -1658,11 +1719,11 @@
       <c r="I29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
@@ -1670,8 +1731,8 @@
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,102 +1843,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7100</v>
+      </c>
+      <c r="E32" s="3">
         <v>6700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>8800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>9000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>3600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E33" s="3">
         <v>8200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>7200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>6700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>5900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>4200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E35" s="3">
         <v>8200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>7200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>6700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>5900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>4200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,102 +2140,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32500</v>
+      </c>
+      <c r="E41" s="3">
         <v>34000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>33800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>19200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>41400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>25300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="M41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N41" s="3">
         <v>20700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>37900</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>102000</v>
+      </c>
+      <c r="E42" s="3">
         <v>195600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>75100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>97900</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>104500</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>137600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>110400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>96300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>37800</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M42" s="3">
+      <c r="M42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42" s="3">
         <v>44500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>92800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,8 +2338,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,102 +2488,111 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>41200</v>
+      </c>
+      <c r="E48" s="3">
         <v>39600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>36600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>35300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>32300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>28100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>26900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>24500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>23700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>24300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>18600</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E49" s="3">
         <v>65600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>52800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>53100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>54200</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>20000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M49" s="3">
+      <c r="M49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20700</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2600,26 +2720,29 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>1800</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2639200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2657900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2200300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2210200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2163500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1806500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1805400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1793200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1735800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M54" s="3">
+      <c r="M54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N54" s="3">
         <v>1703600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1753400</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,8 +2880,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2873,26 +3010,29 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2938,25 +3078,28 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>45700</v>
+      </c>
+      <c r="E61" s="3">
         <v>43700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>67400</v>
-      </c>
-      <c r="F61" s="3">
-        <v>68400</v>
       </c>
       <c r="G61" s="3">
         <v>68400</v>
       </c>
       <c r="H61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="I61" s="3">
         <v>11500</v>
@@ -2965,28 +3108,31 @@
         <v>11500</v>
       </c>
       <c r="K61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L61" s="3">
         <v>59500</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
         <v>20000</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2353100</v>
+      </c>
+      <c r="E66" s="3">
         <v>2381800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>1962600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1980000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1938200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1621000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1626200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1618800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1566600</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N66" s="3">
         <v>1541800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1591700</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E72" s="3">
         <v>202100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>195300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>189500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>183600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>178300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>173600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>168400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>162100</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="M72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N72" s="3">
         <v>151900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>145900</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>286100</v>
+      </c>
+      <c r="E76" s="3">
         <v>276100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>237700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>230200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>225300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>185400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>179200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>174300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>169100</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N76" s="3">
         <v>161800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>161700</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E81" s="3">
         <v>8200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>7200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>6700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>5900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>4200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,46 +4025,47 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>700</v>
-      </c>
-      <c r="E83" s="3">
-        <v>800</v>
       </c>
       <c r="F83" s="3">
         <v>800</v>
       </c>
       <c r="G83" s="3">
+        <v>800</v>
+      </c>
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>400</v>
       </c>
       <c r="I83" s="3">
         <v>400</v>
       </c>
       <c r="J83" s="3">
+        <v>400</v>
+      </c>
+      <c r="K83" s="3">
         <v>500</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M83" s="3">
-        <v>500</v>
+      <c r="M83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
+      <c r="O83" s="3">
+        <v>500</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E89" s="3">
         <v>21100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>6900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>3600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>12900</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>14000</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1800</v>
+        <v>-1900</v>
       </c>
       <c r="E91" s="3">
         <v>-1800</v>
       </c>
       <c r="F91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M91" s="3">
+      <c r="M91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N91" s="3">
         <v>-5600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1200</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-74700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-125500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-18600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-82700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-38200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>18700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-3900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>16300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
         <v>-14200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,16 +4615,17 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1400</v>
       </c>
       <c r="F96" s="3">
         <v>-1400</v>
@@ -4400,7 +4634,7 @@
         <v>-1400</v>
       </c>
       <c r="H96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>-1300</v>
@@ -4409,19 +4643,19 @@
         <v>-1300</v>
       </c>
       <c r="K96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="L96" s="3">
         <v>0</v>
       </c>
       <c r="M96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="N96" s="3">
         <v>-1100</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4813,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-25100</v>
+      </c>
+      <c r="E100" s="3">
         <v>227500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>37200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>23800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>6800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>43200</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
         <v>-50100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>38900</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-96500</v>
+      </c>
+      <c r="E102" s="3">
         <v>123100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-32300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-31900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-7500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>16700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>72400</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
         <v>-64200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>67700</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,132 +665,138 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E8" s="3">
         <v>25900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>23300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>20200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>19700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>17400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>12600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>11900</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,28 +1078,31 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E15" s="3">
         <v>-400</v>
       </c>
       <c r="F15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G15" s="3">
         <v>-300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-400</v>
       </c>
       <c r="H15" s="3">
         <v>-400</v>
       </c>
       <c r="I15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="J15" s="3">
         <v>-200</v>
@@ -1098,19 +1120,22 @@
         <v>-200</v>
       </c>
       <c r="O15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P15" s="3">
         <v>-100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,66 +1151,70 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E17" s="3">
         <v>4400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>6700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22800</v>
+      </c>
+      <c r="E18" s="3">
         <v>21500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>17700</v>
       </c>
       <c r="F18" s="3">
         <v>17700</v>
@@ -1194,40 +1223,43 @@
         <v>17700</v>
       </c>
       <c r="H18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="I18" s="3">
         <v>17300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>15800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>10300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>9900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-8800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-9000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-8500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-3600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16500</v>
+      </c>
+      <c r="E21" s="3">
         <v>15300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>11700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>9600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>8100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>7900</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O21" s="3">
         <v>9800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>6700</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1396,108 +1435,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E23" s="3">
         <v>14500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>11000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>8800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>9700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>7700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>6200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>5600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E24" s="3">
         <v>3500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2200</v>
-      </c>
-      <c r="H24" s="3">
-        <v>1700</v>
       </c>
       <c r="I24" s="3">
         <v>1700</v>
       </c>
       <c r="J24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K24" s="3">
         <v>2000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>1400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1800</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2100</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="E26" s="3">
         <v>11000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>8300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>7300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>6700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>5900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>4200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>10900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>8200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>7200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>6700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>4200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1710,11 +1770,11 @@
       <c r="F29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>5</v>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>5</v>
@@ -1722,11 +1782,11 @@
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
@@ -1734,8 +1794,8 @@
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E32" s="3">
         <v>7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>8800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>9000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>8500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>3600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E33" s="3">
         <v>10900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>8200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>7200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>6700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>5900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>4200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E35" s="3">
         <v>10900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>8200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>7200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>6700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>5900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>4200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,108 +2226,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>36300</v>
+      </c>
+      <c r="E41" s="3">
         <v>32500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>34000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>27700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>45700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>19200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>41400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>25300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="3">
+      <c r="N41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O41" s="3">
         <v>20700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>37900</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>187300</v>
+      </c>
+      <c r="E42" s="3">
         <v>102000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>195600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>75100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>97900</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>104500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>137600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>110400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>96300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>37800</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O42" s="3">
         <v>44500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>92800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43200</v>
+      </c>
+      <c r="E48" s="3">
         <v>41200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>39600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>36600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>35300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>32300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>28100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>26900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>24500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>23700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>24300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>18600</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E49" s="3">
         <v>65100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>65600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>52800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>53100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>54200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>20000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N49" s="3">
+      <c r="N49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O49" s="3">
         <v>20400</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20700</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2723,26 +2842,29 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>1800</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2718000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2639200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2657900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2200300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2210200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2163500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1806500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1805400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1793200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1735800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O54" s="3">
         <v>1703600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1753400</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2931,8 +3061,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3013,26 +3149,29 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3081,28 +3220,31 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E61" s="3">
         <v>45700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>43700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>67400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>68400</v>
       </c>
       <c r="H61" s="3">
         <v>68400</v>
       </c>
       <c r="I61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="J61" s="3">
         <v>11500</v>
@@ -3111,28 +3253,31 @@
         <v>11500</v>
       </c>
       <c r="L61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M61" s="3">
         <v>59500</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
       <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>20000</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2423200</v>
+      </c>
+      <c r="E66" s="3">
         <v>2353100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2381800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1962600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1980000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1938200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1621000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1626200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1618800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1566600</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O66" s="3">
         <v>1541800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1591700</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>221400</v>
+      </c>
+      <c r="E72" s="3">
         <v>211500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>202100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>195300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>189500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>183600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>178300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>173600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>168400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>162100</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O72" s="3">
         <v>151900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>145900</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>294900</v>
+      </c>
+      <c r="E76" s="3">
         <v>286100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>276100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>237700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>230200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>225300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>185400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>179200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>174300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>169100</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O76" s="3">
         <v>161800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>161700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E81" s="3">
         <v>10900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>8200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>7200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>6700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>5900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>4200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,49 +4223,50 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>800</v>
       </c>
       <c r="G83" s="3">
         <v>800</v>
       </c>
       <c r="H83" s="3">
+        <v>800</v>
+      </c>
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>400</v>
       </c>
       <c r="J83" s="3">
         <v>400</v>
       </c>
       <c r="K83" s="3">
+        <v>400</v>
+      </c>
+      <c r="L83" s="3">
         <v>500</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N83" s="3">
-        <v>500</v>
+      <c r="N83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
+      <c r="P83" s="3">
+        <v>500</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>5</v>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E89" s="3">
         <v>3300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-2100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>3600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>12900</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>14000</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-1800</v>
       </c>
       <c r="F91" s="3">
         <v>-1800</v>
       </c>
       <c r="G91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N91" s="3">
+      <c r="N91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O91" s="3">
         <v>-5600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1200</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-74700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-125500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-18600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-82700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-38200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>18700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>16300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
         <v>-14200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>16400</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4625,10 +4858,10 @@
         <v>-1600</v>
       </c>
       <c r="E96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="F96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1400</v>
       </c>
       <c r="G96" s="3">
         <v>-1400</v>
@@ -4637,7 +4870,7 @@
         <v>-1400</v>
       </c>
       <c r="I96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1300</v>
@@ -4646,19 +4879,19 @@
         <v>-1300</v>
       </c>
       <c r="L96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="M96" s="3">
         <v>0</v>
       </c>
       <c r="N96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="O96" s="3">
         <v>-1100</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="Q96" s="3">
         <v>0</v>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-25100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>227500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>37200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>23800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>6800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>43200</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
         <v>-50100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>38900</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>89500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-96500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>123100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-32300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-31900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-7500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>16700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>1400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>72400</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
         <v>-64200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>67700</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,138 +665,145 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24400</v>
+      </c>
+      <c r="E8" s="3">
         <v>27100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>23300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>20200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>19700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>17400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>12600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>11900</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,31 +1101,34 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E15" s="3">
         <v>-500</v>
-      </c>
-      <c r="E15" s="3">
-        <v>-400</v>
       </c>
       <c r="F15" s="3">
         <v>-400</v>
       </c>
       <c r="G15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H15" s="3">
         <v>-300</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-400</v>
       </c>
       <c r="I15" s="3">
         <v>-400</v>
       </c>
       <c r="J15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="K15" s="3">
         <v>-200</v>
@@ -1123,19 +1146,22 @@
         <v>-200</v>
       </c>
       <c r="P15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
         <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,72 +1178,76 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E17" s="3">
         <v>4300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>5600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21200</v>
+      </c>
+      <c r="E18" s="3">
         <v>22800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21500</v>
-      </c>
-      <c r="F18" s="3">
-        <v>17700</v>
       </c>
       <c r="G18" s="3">
         <v>17700</v>
@@ -1226,40 +1256,43 @@
         <v>17700</v>
       </c>
       <c r="I18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="J18" s="3">
         <v>17300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>14900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>15800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>10300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>9900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1312,121 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-8800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-9000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-4700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-3600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="3">
         <v>16500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>9600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>10500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>8100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>7900</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P21" s="3">
         <v>9800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>6700</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,114 +1478,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E23" s="3">
         <v>15600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>11000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>8800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>9700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>7700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>6200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>5600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>4100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>1600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2200</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1700</v>
       </c>
       <c r="J24" s="3">
         <v>1700</v>
       </c>
       <c r="K24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L24" s="3">
         <v>2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1800</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2100</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1606,52 +1658,55 @@
         <v>11500</v>
       </c>
       <c r="E26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="F26" s="3">
         <v>11000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>7300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>6700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>5900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>7100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>4200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1659,52 +1714,55 @@
         <v>11400</v>
       </c>
       <c r="E27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F27" s="3">
         <v>10900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>7200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>6700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>5900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>7100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>4200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,40 +1814,43 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+      <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
@@ -1797,8 +1858,8 @@
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,61 +1982,67 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>7200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>8800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>9000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>4700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>3600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1977,52 +2050,55 @@
         <v>11400</v>
       </c>
       <c r="E33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F33" s="3">
         <v>10900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>7200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>6700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>5900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>7100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>4200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2083,110 +2162,116 @@
         <v>11400</v>
       </c>
       <c r="E35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F35" s="3">
         <v>10900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>7200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>6700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>5900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>7100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>4200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,114 +2313,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>26900</v>
+      </c>
+      <c r="E41" s="3">
         <v>36300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>32500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>34000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>27700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>45700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>19200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>41400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>25300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="O41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P41" s="3">
         <v>20700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>37900</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>287500</v>
+      </c>
+      <c r="E42" s="3">
         <v>187300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>102000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>195600</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>75100</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>97900</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>104500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>137600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>110400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>96300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>37800</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O42" s="3">
+      <c r="O42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P42" s="3">
         <v>44500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>92800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43600</v>
+      </c>
+      <c r="E48" s="3">
         <v>43200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>41200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>39600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>36600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>35300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>32300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>28100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>26900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>24500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>23700</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>24300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>18600</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E49" s="3">
         <v>64600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>65100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>65600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>52800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>53100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>54200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>20000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20400</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O49" s="3">
+      <c r="O49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P49" s="3">
         <v>20400</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20700</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2845,26 +2965,29 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>1800</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2846200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2718000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2639200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2657900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2200300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2210200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2163500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1806500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1805400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1793200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1735800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="O54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P54" s="3">
         <v>1703600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1753400</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3152,26 +3289,29 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3223,31 +3363,34 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E61" s="3">
         <v>41000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>45700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>43700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>67400</v>
-      </c>
-      <c r="H61" s="3">
-        <v>68400</v>
       </c>
       <c r="I61" s="3">
         <v>68400</v>
       </c>
       <c r="J61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="K61" s="3">
         <v>11500</v>
@@ -3256,28 +3399,31 @@
         <v>11500</v>
       </c>
       <c r="M61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N61" s="3">
         <v>59500</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
       <c r="O61" s="3">
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>20000</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
         <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2542800</v>
+      </c>
+      <c r="E66" s="3">
         <v>2423200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2353100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2381800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1962600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1980000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1938200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1621000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1626200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1618800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1566600</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="O66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P66" s="3">
         <v>1541800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1591700</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>231300</v>
+      </c>
+      <c r="E72" s="3">
         <v>221400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>211500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>202100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>195300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>189500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>183600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>178300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>173600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>168400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>162100</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="O72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P72" s="3">
         <v>151900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>145900</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>303400</v>
+      </c>
+      <c r="E76" s="3">
         <v>294900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>286100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>276100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>237700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>230200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>225300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>185400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>179200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>174300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>169100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="O76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P76" s="3">
         <v>161800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>161700</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4159,52 +4354,55 @@
         <v>11400</v>
       </c>
       <c r="E81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F81" s="3">
         <v>10900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>7200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>6700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>5900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>7100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>4200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4233,43 +4432,43 @@
         <v>900</v>
       </c>
       <c r="E83" s="3">
+        <v>900</v>
+      </c>
+      <c r="F83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>700</v>
-      </c>
-      <c r="G83" s="3">
-        <v>800</v>
       </c>
       <c r="H83" s="3">
         <v>800</v>
       </c>
       <c r="I83" s="3">
+        <v>800</v>
+      </c>
+      <c r="J83" s="3">
         <v>700</v>
-      </c>
-      <c r="J83" s="3">
-        <v>400</v>
       </c>
       <c r="K83" s="3">
         <v>400</v>
       </c>
       <c r="L83" s="3">
+        <v>400</v>
+      </c>
+      <c r="M83" s="3">
         <v>500</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O83" s="3">
-        <v>500</v>
+      <c r="O83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P83" s="3">
         <v>500</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
+      <c r="Q83" s="3">
+        <v>500</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>5</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E89" s="3">
         <v>21600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>3300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>12900</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>14000</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1800</v>
       </c>
       <c r="G91" s="3">
         <v>-1800</v>
       </c>
       <c r="H91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="I91" s="3">
         <v>-3400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1800</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O91" s="3">
+      <c r="O91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P91" s="3">
         <v>-5600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-41100</v>
+      </c>
+      <c r="E94" s="3">
         <v>12800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-74700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-125500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-18600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-38200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>18700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>16300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P94" s="3">
         <v>-14200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>16400</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4861,10 +5095,10 @@
         <v>-1600</v>
       </c>
       <c r="F96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1400</v>
       </c>
       <c r="H96" s="3">
         <v>-1400</v>
@@ -4873,7 +5107,7 @@
         <v>-1400</v>
       </c>
       <c r="J96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="K96" s="3">
         <v>-1300</v>
@@ -4882,19 +5116,19 @@
         <v>-1300</v>
       </c>
       <c r="M96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="N96" s="3">
         <v>0</v>
       </c>
       <c r="O96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="P96" s="3">
         <v>-1100</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="R96" s="3">
         <v>0</v>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>125900</v>
+      </c>
+      <c r="E100" s="3">
         <v>55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-25100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>227500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>37200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>23800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>6800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>43200</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P100" s="3">
         <v>-50100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>38900</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E102" s="3">
         <v>89500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-96500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>123100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-32300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-31900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-7500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>16700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>72400</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P102" s="3">
         <v>-64200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>67700</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,145 +665,152 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24000</v>
+      </c>
+      <c r="E8" s="3">
         <v>24400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>27100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>20200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>19700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>17400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>12600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>11900</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -858,8 +865,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +949,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1006,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1065,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1124,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1113,25 +1136,25 @@
         <v>-400</v>
       </c>
       <c r="E15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F15" s="3">
         <v>-500</v>
-      </c>
-      <c r="F15" s="3">
-        <v>-400</v>
       </c>
       <c r="G15" s="3">
         <v>-400</v>
       </c>
       <c r="H15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I15" s="3">
         <v>-300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>-400</v>
       </c>
       <c r="J15" s="3">
         <v>-400</v>
       </c>
       <c r="K15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="L15" s="3">
         <v>-200</v>
@@ -1149,19 +1172,22 @@
         <v>-200</v>
       </c>
       <c r="Q15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R15" s="3">
         <v>-100</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,78 +1205,82 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>20900</v>
+      </c>
+      <c r="E18" s="3">
         <v>21200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>21500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>17700</v>
       </c>
       <c r="H18" s="3">
         <v>17700</v>
@@ -1259,40 +1289,43 @@
         <v>17700</v>
       </c>
       <c r="J18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="K18" s="3">
         <v>17300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>14900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>15800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>10300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>9900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,120 +1346,127 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-6700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-8800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-9000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-4700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-3600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E21" s="3">
         <v>16000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>11700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>9600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>9000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>8100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>7900</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="3">
         <v>9800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>6700</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1521,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1490,55 +1533,58 @@
         <v>15200</v>
       </c>
       <c r="E23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="F23" s="3">
         <v>15600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>11000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>8800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>9700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>8400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>7700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>7400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>6200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>5600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>6300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1546,55 +1592,58 @@
         <v>3700</v>
       </c>
       <c r="E24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F24" s="3">
         <v>4100</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3500</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>1600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>2200</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1700</v>
       </c>
       <c r="K24" s="3">
         <v>1700</v>
       </c>
       <c r="L24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M24" s="3">
         <v>2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1800</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>2100</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1698,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,108 +1713,114 @@
         <v>11500</v>
       </c>
       <c r="F26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="G26" s="3">
         <v>11000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>7300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>6700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>5900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>4200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E27" s="3">
         <v>11400</v>
       </c>
       <c r="F27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G27" s="3">
         <v>10900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>7200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>6700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>5900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>4200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1843,17 +1904,17 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
@@ -1861,8 +1922,8 @@
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2052,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E32" s="3">
         <v>6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>6700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>8800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>9000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>4700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>3600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E33" s="3">
         <v>11400</v>
       </c>
       <c r="F33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G33" s="3">
         <v>10900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>7200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>6700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>5900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>4200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E35" s="3">
         <v>11400</v>
       </c>
       <c r="F35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G35" s="3">
         <v>10900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>7200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>6700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>5900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>4200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,120 +2400,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="E41" s="3">
         <v>26900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>36300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>34000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>33800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>45700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>19200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>41400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>25300</v>
       </c>
-      <c r="O41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q41" s="3">
         <v>20700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>37900</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>275300</v>
+      </c>
+      <c r="E42" s="3">
         <v>287500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>187300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>102000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>195600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>75100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>97900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>104500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>137600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>110400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>96300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>37800</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q42" s="3">
         <v>44500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>92800</v>
       </c>
-      <c r="R42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2575,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2634,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2693,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2752,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,120 +2811,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>43500</v>
+      </c>
+      <c r="E48" s="3">
         <v>43600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>41200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>39600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>36600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>35300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>32300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>28100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>26900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>24500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>23700</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>24300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>18600</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E49" s="3">
         <v>64300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>65100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>52800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>53100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>20000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20400</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P49" s="3">
+      <c r="P49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q49" s="3">
         <v>20400</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20700</v>
       </c>
-      <c r="R49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2968,26 +3088,29 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>1800</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2819000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2846200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2718000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2639200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2657900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2200300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2210200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2163500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1806500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1805400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1793200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1735800</v>
       </c>
-      <c r="O54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q54" s="3">
         <v>1703600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1753400</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3272,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3329,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3388,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3292,26 +3429,29 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,34 +3506,37 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>26700</v>
+      </c>
+      <c r="E61" s="3">
         <v>30500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>41000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>45700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>43700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>67400</v>
-      </c>
-      <c r="I61" s="3">
-        <v>68400</v>
       </c>
       <c r="J61" s="3">
         <v>68400</v>
       </c>
       <c r="K61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="L61" s="3">
         <v>11500</v>
@@ -3402,28 +3545,31 @@
         <v>11500</v>
       </c>
       <c r="N61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="O61" s="3">
         <v>59500</v>
       </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
         <v>20000</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3624,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2507500</v>
+      </c>
+      <c r="E66" s="3">
         <v>2542800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2423200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2353100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2381800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1962600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1980000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1938200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1621000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1626200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1618800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1566600</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q66" s="3">
         <v>1541800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1591700</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>241200</v>
+      </c>
+      <c r="E72" s="3">
         <v>231300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>221400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>211500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>202100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>195300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>189500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>183600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>178300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>173600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>168400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>162100</v>
       </c>
-      <c r="O72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q72" s="3">
         <v>151900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>145900</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>311400</v>
+      </c>
+      <c r="E76" s="3">
         <v>303400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>294900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>286100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>276100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>237700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>230200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>225300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>185400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>179200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>174300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>169100</v>
       </c>
-      <c r="O76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q76" s="3">
         <v>161800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>161700</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>11400</v>
+        <v>11500</v>
       </c>
       <c r="E81" s="3">
         <v>11400</v>
       </c>
       <c r="F81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="G81" s="3">
         <v>10900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>7200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>6700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>5900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>4200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,55 +4621,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E83" s="3">
         <v>900</v>
       </c>
       <c r="F83" s="3">
+        <v>900</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>700</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
       </c>
       <c r="J83" s="3">
+        <v>800</v>
+      </c>
+      <c r="K83" s="3">
         <v>700</v>
-      </c>
-      <c r="K83" s="3">
-        <v>400</v>
       </c>
       <c r="L83" s="3">
         <v>400</v>
       </c>
       <c r="M83" s="3">
+        <v>400</v>
+      </c>
+      <c r="N83" s="3">
         <v>500</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P83" s="3">
-        <v>500</v>
+      <c r="P83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
+      <c r="R83" s="3">
+        <v>500</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>6100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>21600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>3300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>21100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-2100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>13500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>6900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>12900</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
+      <c r="P89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q89" s="3">
         <v>100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>14000</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1800</v>
       </c>
       <c r="H91" s="3">
         <v>-1800</v>
       </c>
       <c r="I91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="J91" s="3">
         <v>-3400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1800</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P91" s="3">
+      <c r="P91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1200</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E94" s="3">
         <v>-41100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>12800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-74700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-125500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-18600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-38200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>18700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-3900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>16300</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
+      <c r="P94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5098,10 +5332,10 @@
         <v>-1600</v>
       </c>
       <c r="G96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1400</v>
       </c>
       <c r="I96" s="3">
         <v>-1400</v>
@@ -5110,7 +5344,7 @@
         <v>-1400</v>
       </c>
       <c r="K96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1300</v>
@@ -5119,19 +5353,19 @@
         <v>-1300</v>
       </c>
       <c r="N96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="O96" s="3">
         <v>0</v>
       </c>
       <c r="P96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Q96" s="3">
         <v>-1100</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,64 +5550,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E100" s="3">
         <v>125900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>55000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-25100</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>227500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-11600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>37200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>23800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>43200</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
+      <c r="P100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-50100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>38900</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10100</v>
+      </c>
+      <c r="E102" s="3">
         <v>91000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-96500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>123100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-31900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-7500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>16700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>72400</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
+      <c r="P102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-64200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>67700</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,152 +665,159 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24900</v>
+      </c>
+      <c r="E8" s="3">
         <v>24000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>27100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>23300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>23800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>20200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>19700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>19800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>19500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>17400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>12600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>11900</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,8 +963,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1009,8 +1023,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1085,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1127,8 +1147,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1139,25 +1162,25 @@
         <v>-400</v>
       </c>
       <c r="F15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G15" s="3">
         <v>-500</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-400</v>
       </c>
       <c r="H15" s="3">
         <v>-400</v>
       </c>
       <c r="I15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J15" s="3">
         <v>-300</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-400</v>
       </c>
       <c r="K15" s="3">
         <v>-400</v>
       </c>
       <c r="L15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="M15" s="3">
         <v>-200</v>
@@ -1175,19 +1198,22 @@
         <v>-200</v>
       </c>
       <c r="R15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S15" s="3">
         <v>-100</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,84 +1232,88 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>6100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>5000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E18" s="3">
         <v>20900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>21500</v>
-      </c>
-      <c r="H18" s="3">
-        <v>17700</v>
       </c>
       <c r="I18" s="3">
         <v>17700</v>
@@ -1292,40 +1322,43 @@
         <v>17700</v>
       </c>
       <c r="K18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="L18" s="3">
         <v>17300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>14900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>14600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>14800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>15800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>10300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>9900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,126 +1380,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-5600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-8800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-8000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-9000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-7300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-4700</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-3600</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E21" s="3">
         <v>16100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>16500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>11700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>9600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>10500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>9000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>8100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>7900</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R21" s="3">
         <v>9800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>6700</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,126 +1564,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>15200</v>
+        <v>14800</v>
       </c>
       <c r="E23" s="3">
         <v>15200</v>
       </c>
       <c r="F23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="G23" s="3">
         <v>15600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>11000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>8800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>9700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>8400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>7700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>7400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>6200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>5600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>6300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
         <v>3700</v>
       </c>
       <c r="F24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G24" s="3">
         <v>4100</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>1600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>2200</v>
-      </c>
-      <c r="K24" s="3">
-        <v>1700</v>
       </c>
       <c r="L24" s="3">
         <v>1700</v>
       </c>
       <c r="M24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N24" s="3">
         <v>2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1800</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2100</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,13 +1750,16 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="E26" s="3">
         <v>11500</v>
@@ -1716,111 +1768,117 @@
         <v>11500</v>
       </c>
       <c r="G26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="H26" s="3">
         <v>11000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>8300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>7300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>7500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>6700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>6000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>6600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>5900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>4200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E27" s="3">
         <v>11500</v>
-      </c>
-      <c r="E27" s="3">
-        <v>11400</v>
       </c>
       <c r="F27" s="3">
         <v>11400</v>
       </c>
       <c r="G27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H27" s="3">
         <v>10900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>8200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>7200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>7500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>6700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>6000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>6600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>5900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>4200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1907,17 +1968,17 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
@@ -1925,8 +1986,8 @@
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,126 +2122,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E32" s="3">
         <v>5600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>8800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>8000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>9000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>7300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>4700</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>3600</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E33" s="3">
         <v>11500</v>
-      </c>
-      <c r="E33" s="3">
-        <v>11400</v>
       </c>
       <c r="F33" s="3">
         <v>11400</v>
       </c>
       <c r="G33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H33" s="3">
         <v>10900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>8200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>7200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>7500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>6700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>6000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>6600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>5900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>4200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E35" s="3">
         <v>11500</v>
-      </c>
-      <c r="E35" s="3">
-        <v>11400</v>
       </c>
       <c r="F35" s="3">
         <v>11400</v>
       </c>
       <c r="G35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H35" s="3">
         <v>10900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>8200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>7200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>7500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>6700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>6000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>6600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>5900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>4200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,126 +2487,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="E41" s="3">
         <v>29200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>26900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>36300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>34000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>27700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>33800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>45700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>19200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>29500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>41400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>25300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R41" s="3">
         <v>20700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>37900</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>321400</v>
+      </c>
+      <c r="E42" s="3">
         <v>275300</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>287500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>187300</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>102000</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>195600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>75100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>97900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>104500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>137600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>110400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>96300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>37800</v>
       </c>
-      <c r="P42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R42" s="3">
         <v>44500</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>92800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2578,8 +2671,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2637,8 +2733,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2696,8 +2795,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2755,8 +2857,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,126 +2919,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>44200</v>
+      </c>
+      <c r="E48" s="3">
         <v>43500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>43600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>43200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>41200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>39600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>36600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>35300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>32300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>28100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>26900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>24500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>23700</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>24300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>18600</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="E49" s="3">
         <v>64400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>65600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>52800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>53100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>54200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>20000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>20200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>20300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20400</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R49" s="3">
         <v>20400</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20700</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3091,26 +3211,29 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>1800</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U52" s="3">
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2846600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2819000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2846200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2718000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2639200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2657900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2200300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2210200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2163500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1806500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1805400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1793200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1735800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R54" s="3">
         <v>1703600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1753400</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,8 +3403,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3332,8 +3463,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3391,8 +3525,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3432,26 +3569,29 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="T59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3509,37 +3649,40 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26700</v>
+        <v>17500</v>
       </c>
       <c r="E61" s="3">
-        <v>30500</v>
+        <v>17500</v>
       </c>
       <c r="F61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="G61" s="3">
         <v>41000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>45700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>43700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>67400</v>
-      </c>
-      <c r="J61" s="3">
-        <v>68400</v>
       </c>
       <c r="K61" s="3">
         <v>68400</v>
       </c>
       <c r="L61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="M61" s="3">
         <v>11500</v>
@@ -3548,28 +3691,31 @@
         <v>11500</v>
       </c>
       <c r="O61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P61" s="3">
         <v>59500</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
       <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>20000</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3627,8 +3773,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2531300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2507500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2542800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2423200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2353100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2381800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1962600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>1980000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1938200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1621000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1626200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1618800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1566600</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R66" s="3">
         <v>1541800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1591700</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>248600</v>
+      </c>
+      <c r="E72" s="3">
         <v>241200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>231300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>221400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>211500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>202100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>195300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>189500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>183600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>178300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>173600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>168400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>162100</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R72" s="3">
         <v>151900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>145900</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>315300</v>
+      </c>
+      <c r="E76" s="3">
         <v>311400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>303400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>294900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>286100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>276100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>237700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>230200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>225300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>185400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>179200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>174300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>169100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R76" s="3">
         <v>161800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>161700</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E81" s="3">
         <v>11500</v>
-      </c>
-      <c r="E81" s="3">
-        <v>11400</v>
       </c>
       <c r="F81" s="3">
         <v>11400</v>
       </c>
       <c r="G81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="H81" s="3">
         <v>10900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>8200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>7200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>7500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>6700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>6000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>6600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>5900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>4200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,58 +4820,59 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>700</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
-      </c>
-      <c r="E83" s="3">
-        <v>900</v>
       </c>
       <c r="F83" s="3">
         <v>900</v>
       </c>
       <c r="G83" s="3">
+        <v>900</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>700</v>
-      </c>
-      <c r="I83" s="3">
-        <v>800</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>800</v>
+      </c>
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>500</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q83" s="3">
-        <v>500</v>
+      <c r="Q83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
+      <c r="S83" s="3">
+        <v>500</v>
       </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>5500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>6100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>21600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>3300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>21100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>13500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>6900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1400</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>12900</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>14000</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-1800</v>
       </c>
       <c r="I91" s="3">
         <v>-1800</v>
       </c>
       <c r="J91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="K91" s="3">
         <v>-3400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1800</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="Q91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R91" s="3">
         <v>-5600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1200</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E94" s="3">
         <v>19900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-41100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>12800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-125500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-18600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-82700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-38200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>18700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-3900</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>16300</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R94" s="3">
         <v>-14200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16400</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,13 +5550,14 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1600</v>
+        <v>-3800</v>
       </c>
       <c r="E96" s="3">
         <v>-1600</v>
@@ -5335,10 +5569,10 @@
         <v>-1600</v>
       </c>
       <c r="H96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1400</v>
       </c>
       <c r="J96" s="3">
         <v>-1400</v>
@@ -5347,7 +5581,7 @@
         <v>-1400</v>
       </c>
       <c r="L96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="M96" s="3">
         <v>-1300</v>
@@ -5356,19 +5590,19 @@
         <v>-1300</v>
       </c>
       <c r="O96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="P96" s="3">
         <v>0</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="R96" s="3">
         <v>-1100</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>13400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>125900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-25100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>227500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-11600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>37200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>23800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-5600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>6800</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>43200</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R100" s="3">
         <v>-50100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>38900</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>48900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-10100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>91000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-96500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>123100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-31900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-7500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>16700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>72400</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R102" s="3">
         <v>-64200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>67700</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,159 +665,172 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>24200</v>
+      </c>
+      <c r="E8" s="3">
+        <v>25000</v>
+      </c>
+      <c r="F8" s="3">
         <v>24900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>24000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>27100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>25900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>23300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>23800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>25500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>20200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>19700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>19800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>19500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>19400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>19300</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>17400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>12600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>11900</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -878,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,13 +1189,19 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E15" s="3">
         <v>-400</v>
@@ -1165,28 +1210,28 @@
         <v>-400</v>
       </c>
       <c r="G15" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="H15" s="3">
         <v>-400</v>
       </c>
       <c r="I15" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J15" s="3">
         <v>-400</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-300</v>
       </c>
       <c r="K15" s="3">
         <v>-400</v>
       </c>
       <c r="L15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M15" s="3">
         <v>-400</v>
       </c>
-      <c r="M15" s="3">
-        <v>-200</v>
-      </c>
       <c r="N15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="O15" s="3">
         <v>-200</v>
@@ -1201,19 +1246,25 @@
         <v>-200</v>
       </c>
       <c r="S15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U15" s="3">
         <v>-100</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1284,146 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F17" s="3">
         <v>2600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>6700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>5600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>6100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>8200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>5300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>4500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>22600</v>
+      </c>
+      <c r="F18" s="3">
         <v>22300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>20900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>22800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>21500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>17700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>17700</v>
       </c>
       <c r="K18" s="3">
         <v>17700</v>
       </c>
       <c r="L18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="M18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="N18" s="3">
         <v>17300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>14900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>14600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>14800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>14700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>14900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>15800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>14700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>10300</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>9900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1446,146 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="F20" s="3">
         <v>-7400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-5600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-6000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-7100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-6700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-8800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-8000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-9000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-7300</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-6000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-7400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-7200</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-7100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-8500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-4700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-3600</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>15500</v>
+      </c>
+      <c r="F21" s="3">
         <v>15600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>16100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>16000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>16500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>15300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>11700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>9600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>10500</v>
-      </c>
-      <c r="L21" s="3">
-        <v>9000</v>
-      </c>
-      <c r="M21" s="3">
-        <v>8100</v>
       </c>
       <c r="N21" s="3">
         <v>9000</v>
       </c>
       <c r="O21" s="3">
+        <v>8100</v>
+      </c>
+      <c r="P21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="Q21" s="3">
         <v>7900</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T21" s="3">
         <v>9800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>6700</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1567,132 +1646,150 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>13600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>14700</v>
+      </c>
+      <c r="F23" s="3">
         <v>14800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>15200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>15200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>15600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>14500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>11000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>8800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>9700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>8400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>7700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>7400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>7500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>7800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>9300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>6200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>5600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>6300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G24" s="3">
         <v>3700</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>4100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>3500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>2700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>2200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>1700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>1700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>2000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P24" s="3">
-        <v>1600</v>
       </c>
       <c r="Q24" s="3">
         <v>1400</v>
       </c>
       <c r="R24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T24" s="3">
         <v>2200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>2900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>1800</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>2100</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1850,150 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E26" s="3">
         <v>11200</v>
       </c>
-      <c r="E26" s="3">
-        <v>11500</v>
-      </c>
       <c r="F26" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="G26" s="3">
         <v>11500</v>
       </c>
       <c r="H26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="J26" s="3">
         <v>11000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>8300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>7300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>6700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>6000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>6600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>6100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>5900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>7100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>3800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>4200</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E27" s="3">
         <v>11100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G27" s="3">
         <v>11500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>11400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>10900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>8200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>7200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>6000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>6600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>6100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>5900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>7100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>3800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>4200</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1971,29 +2092,29 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3">
+        <v>0</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
-      </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
@@ -2001,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2258,150 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F32" s="3">
         <v>7400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>5600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>6000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>7100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>6700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>8800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>8000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>9000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>7300</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>6000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>7400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>7200</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>7100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>8500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>4700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>3600</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E33" s="3">
         <v>11100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G33" s="3">
         <v>11500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>11400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>10900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>8200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>7200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>6000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>6600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>6100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>5900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>7100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>3800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>4200</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2462,155 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E35" s="3">
         <v>11100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G35" s="3">
         <v>11500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>11400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>10900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>8200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>7200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>6000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>6600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>6100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>5900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>7100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>3800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>4200</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,132 +2659,146 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>32300</v>
+        <v>28900</v>
       </c>
       <c r="E41" s="3">
         <v>29200</v>
       </c>
       <c r="F41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="G41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="H41" s="3">
         <v>26900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>36300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>32500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>34000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>27700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>33800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>45700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>19200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>29500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>41400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>25300</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T41" s="3">
         <v>20700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>37900</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="V41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>143100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>321200</v>
+      </c>
+      <c r="F42" s="3">
         <v>321400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>275300</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>287500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>187300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>102000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>195600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>75100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>97900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>104500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>137600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>110400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>96300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>37800</v>
       </c>
-      <c r="Q42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T42" s="3">
         <v>44500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>92800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="V42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2798,8 +2995,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +3063,14 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,132 +3131,150 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>49500</v>
+      </c>
+      <c r="F48" s="3">
         <v>44200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>43500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>43600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>43200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>41200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>39600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>36600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>35300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>32300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>28100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>26900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>24500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>23700</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>24300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>18600</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>64100</v>
+        <v>64600</v>
       </c>
       <c r="E49" s="3">
         <v>64400</v>
       </c>
       <c r="F49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="G49" s="3">
+        <v>64400</v>
+      </c>
+      <c r="H49" s="3">
         <v>64300</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>64600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>65100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>65600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>52800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>53100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>54200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>20000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>20200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>20300</v>
-      </c>
-      <c r="P49" s="3">
-        <v>20400</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="R49" s="3">
         <v>20400</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T49" s="3">
+        <v>20400</v>
+      </c>
+      <c r="U49" s="3">
         <v>20700</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3214,26 +3453,32 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
+      <c r="Q52" s="3">
+        <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>1800</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V52" s="3">
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2924900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2937600</v>
+      </c>
+      <c r="F54" s="3">
         <v>2846600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2819000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2846200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2718000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2639200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2657900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2200300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2210200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2163500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1806500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1805400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1793200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1735800</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T54" s="3">
         <v>1703600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1753400</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="V54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3528,8 +3795,14 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3572,26 +3845,32 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V59" s="3">
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3652,70 +3931,82 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17500</v>
+        <v>25200</v>
       </c>
       <c r="E61" s="3">
-        <v>17500</v>
+        <v>25500</v>
       </c>
       <c r="F61" s="3">
         <v>17500</v>
       </c>
       <c r="G61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="I61" s="3">
         <v>41000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>45700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>43700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>67400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>68400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>68400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>11500</v>
-      </c>
-      <c r="N61" s="3">
-        <v>11500</v>
       </c>
       <c r="O61" s="3">
         <v>11500</v>
       </c>
       <c r="P61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="R61" s="3">
         <v>59500</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>20000</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2606600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2614900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2531300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2507500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2542800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2423200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2353100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2381800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>1962600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>1980000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1938200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>1621000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1626200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1618800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1566600</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T66" s="3">
         <v>1541800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1591700</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="V66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>266600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>258100</v>
+      </c>
+      <c r="F72" s="3">
         <v>248600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>241200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>231300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>221400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>211500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>202100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>195300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>189500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>183600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>178300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>173600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>168400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>162100</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T72" s="3">
         <v>151900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>145900</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="V72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>318300</v>
+      </c>
+      <c r="E76" s="3">
+        <v>322700</v>
+      </c>
+      <c r="F76" s="3">
         <v>315300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>311400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>303400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>294900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>286100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>276100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>237700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>230200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>225300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>185400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>179200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>174300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>169100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T76" s="3">
         <v>161800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>161700</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="V76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5045,155 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10100</v>
+      </c>
+      <c r="E81" s="3">
         <v>11100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="G81" s="3">
         <v>11500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>11400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>10900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>8200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>7200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>6000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>6600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>6100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>5900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>7100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>3800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>4200</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4830,61 +5227,67 @@
         <v>700</v>
       </c>
       <c r="E83" s="3">
+        <v>700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>700</v>
+      </c>
+      <c r="G83" s="3">
         <v>800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>900</v>
-      </c>
-      <c r="H83" s="3">
-        <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>700</v>
       </c>
       <c r="J83" s="3">
         <v>800</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
+        <v>800</v>
+      </c>
+      <c r="N83" s="3">
         <v>700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>400</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>400</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>500</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R83" s="3">
+      <c r="R83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5620,82 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15600</v>
+      </c>
+      <c r="F89" s="3">
         <v>13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>5500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>6100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>21600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>3300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>21100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-2100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>13500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>6900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>12900</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>14000</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5718,78 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5800</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-2900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-3400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-1500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-1000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1800</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R91" s="3">
+      <c r="R91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T91" s="3">
         <v>-5600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1200</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +5918,82 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-186100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-95100</v>
+      </c>
+      <c r="F94" s="3">
         <v>22500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>19900</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-41100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>12800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-74700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-125500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-18600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-82700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-38200</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>18700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-3900</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>16300</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T94" s="3">
         <v>-14200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>16400</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,19 +6016,21 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="F96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-1600</v>
       </c>
       <c r="G96" s="3">
         <v>-1600</v>
@@ -5572,49 +6039,55 @@
         <v>-1600</v>
       </c>
       <c r="I96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1400</v>
       </c>
       <c r="L96" s="3">
         <v>-1400</v>
       </c>
       <c r="M96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="N96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="O96" s="3">
         <v>-1300</v>
       </c>
       <c r="P96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
         <v>-1100</v>
       </c>
-      <c r="S96" s="3">
+      <c r="U96" s="3">
         <v>-1100</v>
       </c>
-      <c r="T96" s="3">
-        <v>0</v>
-      </c>
-      <c r="U96" s="3">
-        <v>0</v>
-      </c>
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6284,82 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>76400</v>
+      </c>
+      <c r="F100" s="3">
         <v>13400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-35500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>125900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>55000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-25100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>227500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-11600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>37200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>23800</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>-5600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>43200</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T100" s="3">
         <v>-50100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>38900</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,66 +6420,78 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-189500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F102" s="3">
         <v>48900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-10100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>91000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>89500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-96500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>123100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-32300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-31900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-7500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>72400</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T102" s="3">
         <v>-64200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>67700</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,172 +665,179 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>25800</v>
+      </c>
+      <c r="E8" s="3">
         <v>24200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>25000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>24900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>27100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>23300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>20200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>19700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19300</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>17400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>12600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>11900</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -897,8 +904,11 @@
       <c r="X9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1144,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1215,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1227,7 @@
         <v>-300</v>
       </c>
       <c r="E15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="F15" s="3">
         <v>-400</v>
@@ -1216,25 +1239,25 @@
         <v>-400</v>
       </c>
       <c r="I15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J15" s="3">
         <v>-500</v>
-      </c>
-      <c r="J15" s="3">
-        <v>-400</v>
       </c>
       <c r="K15" s="3">
         <v>-400</v>
       </c>
       <c r="L15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="M15" s="3">
         <v>-300</v>
-      </c>
-      <c r="M15" s="3">
-        <v>-400</v>
       </c>
       <c r="N15" s="3">
         <v>-400</v>
       </c>
       <c r="O15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="P15" s="3">
         <v>-200</v>
@@ -1252,19 +1275,22 @@
         <v>-200</v>
       </c>
       <c r="U15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V15" s="3">
         <v>-100</v>
       </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,102 +1312,106 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>8200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>5300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4500</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>3500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E18" s="3">
         <v>21100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>22600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>20900</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>21500</v>
-      </c>
-      <c r="K18" s="3">
-        <v>17700</v>
       </c>
       <c r="L18" s="3">
         <v>17700</v>
@@ -1390,40 +1420,43 @@
         <v>17700</v>
       </c>
       <c r="N18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="O18" s="3">
         <v>17300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>14900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14700</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>15800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>10300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>9900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,144 +1481,151 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-5600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-6000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-6700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-8800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-9000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7300</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-7400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-8500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-4700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-3600</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E21" s="3">
         <v>14300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>15500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>9600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>10500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>9000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>8100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>7900</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U21" s="3">
         <v>9800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>6700</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,144 +1692,153 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E23" s="3">
         <v>13600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>15200</v>
       </c>
       <c r="H23" s="3">
         <v>15200</v>
       </c>
       <c r="I23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="J23" s="3">
         <v>15600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>11000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>8800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>9700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>8400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>7700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>7400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>9300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>6200</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>5600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>6300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3400</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3600</v>
       </c>
       <c r="F24" s="3">
         <v>3600</v>
       </c>
       <c r="G24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="H24" s="3">
         <v>3700</v>
       </c>
       <c r="I24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="J24" s="3">
         <v>4100</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>2700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>2200</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1700</v>
       </c>
       <c r="O24" s="3">
         <v>1700</v>
       </c>
       <c r="P24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q24" s="3">
         <v>2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>2200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1800</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>2100</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1905,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E26" s="3">
         <v>10200</v>
-      </c>
-      <c r="E26" s="3">
-        <v>11200</v>
       </c>
       <c r="F26" s="3">
         <v>11200</v>
       </c>
       <c r="G26" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="H26" s="3">
         <v>11500</v>
@@ -1880,120 +1932,126 @@
         <v>11500</v>
       </c>
       <c r="J26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="K26" s="3">
         <v>11000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>7300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>6700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>5900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>7100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>3300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>4200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E27" s="3">
         <v>10100</v>
-      </c>
-      <c r="E27" s="3">
-        <v>11100</v>
       </c>
       <c r="F27" s="3">
         <v>11100</v>
       </c>
       <c r="G27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H27" s="3">
         <v>11500</v>
-      </c>
-      <c r="H27" s="3">
-        <v>11400</v>
       </c>
       <c r="I27" s="3">
         <v>11400</v>
       </c>
       <c r="J27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K27" s="3">
         <v>10900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>7200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>5900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>7100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>3300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>4200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2098,17 +2159,17 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
+      <c r="O29" s="3">
+        <v>0</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>5</v>
@@ -2116,8 +2177,8 @@
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,144 +2331,153 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E32" s="3">
         <v>7500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>5600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>6000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>6700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>8800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>9000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7300</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>7400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>8500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>4700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>3600</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E33" s="3">
         <v>10100</v>
-      </c>
-      <c r="E33" s="3">
-        <v>11100</v>
       </c>
       <c r="F33" s="3">
         <v>11100</v>
       </c>
       <c r="G33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H33" s="3">
         <v>11500</v>
-      </c>
-      <c r="H33" s="3">
-        <v>11400</v>
       </c>
       <c r="I33" s="3">
         <v>11400</v>
       </c>
       <c r="J33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K33" s="3">
         <v>10900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>7200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>5900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>7100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>3300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>4200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2544,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E35" s="3">
         <v>10100</v>
-      </c>
-      <c r="E35" s="3">
-        <v>11100</v>
       </c>
       <c r="F35" s="3">
         <v>11100</v>
       </c>
       <c r="G35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H35" s="3">
         <v>11500</v>
-      </c>
-      <c r="H35" s="3">
-        <v>11400</v>
       </c>
       <c r="I35" s="3">
         <v>11400</v>
       </c>
       <c r="J35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K35" s="3">
         <v>10900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>7200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>5900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>7100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>3300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>4200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,144 +2747,151 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>33200</v>
+      </c>
+      <c r="E41" s="3">
         <v>28900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>29200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>32300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>29200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>26900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>36300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>34000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>33800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>45700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>19200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>29500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>41400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>25300</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U41" s="3">
         <v>20700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>37900</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>75600</v>
+      </c>
+      <c r="E42" s="3">
         <v>143100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>321200</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>321400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>275300</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>287500</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>187300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>102000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>195600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>75100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>97900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>104500</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>137600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>110400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>96300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>37800</v>
       </c>
-      <c r="S42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T42" s="3">
+      <c r="T42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U42" s="3">
         <v>44500</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>92800</v>
       </c>
-      <c r="V42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2958,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3029,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3100,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,144 +3242,153 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>50600</v>
+      </c>
+      <c r="E48" s="3">
         <v>50100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>49500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>44200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>43500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>41200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>39600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>36600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>35300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>32300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>28100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>26900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>24500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>23700</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>24300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>18600</v>
       </c>
-      <c r="V48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>65800</v>
+      </c>
+      <c r="E49" s="3">
         <v>64600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>65100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>52800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>53100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>20000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20400</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T49" s="3">
+      <c r="T49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U49" s="3">
         <v>20400</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20700</v>
       </c>
-      <c r="V49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3459,26 +3579,29 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>1800</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X52" s="3">
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3668,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2961000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2924900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2937600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2846600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2819000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2846200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2718000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2639200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2657900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2200300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2210200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2163500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1806500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1805400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1793200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1735800</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U54" s="3">
         <v>1703600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1753400</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3795,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3851,26 +3988,29 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>1100</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,16 +4077,19 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25200</v>
+        <v>17500</v>
       </c>
       <c r="E61" s="3">
-        <v>25500</v>
+        <v>17500</v>
       </c>
       <c r="F61" s="3">
         <v>17500</v>
@@ -3958,25 +4101,25 @@
         <v>17500</v>
       </c>
       <c r="I61" s="3">
-        <v>41000</v>
+        <v>17500</v>
       </c>
       <c r="J61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K61" s="3">
         <v>45700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>43700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67400</v>
-      </c>
-      <c r="M61" s="3">
-        <v>68400</v>
       </c>
       <c r="N61" s="3">
         <v>68400</v>
       </c>
       <c r="O61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="P61" s="3">
         <v>11500</v>
@@ -3985,28 +4128,31 @@
         <v>11500</v>
       </c>
       <c r="R61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="S61" s="3">
         <v>59500</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
       <c r="T61" s="3">
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
         <v>20000</v>
       </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
         <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4432,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2646900</v>
+      </c>
+      <c r="E66" s="3">
         <v>2606600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2614900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2531300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2507500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2542800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2423200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2353100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2381800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1962600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1980000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1938200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1621000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1626200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1618800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1566600</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U66" s="3">
         <v>1541800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1591700</v>
       </c>
-      <c r="V66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4814,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>276600</v>
+      </c>
+      <c r="E72" s="3">
         <v>266600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>258100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>248600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>241200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>231300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>221400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>211500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>202100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>195300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>189500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>183600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>178300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>173600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>168400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>162100</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U72" s="3">
         <v>151900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>145900</v>
       </c>
-      <c r="V72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5098,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>314200</v>
+      </c>
+      <c r="E76" s="3">
         <v>318300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>322700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>315300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>311400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>303400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>294900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>286100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>276100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>237700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>230200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>225300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>185400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>179200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>174300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>169100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U76" s="3">
         <v>161800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>161700</v>
       </c>
-      <c r="V76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5240,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E81" s="3">
         <v>10100</v>
-      </c>
-      <c r="E81" s="3">
-        <v>11100</v>
       </c>
       <c r="F81" s="3">
         <v>11100</v>
       </c>
       <c r="G81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H81" s="3">
         <v>11500</v>
-      </c>
-      <c r="H81" s="3">
-        <v>11400</v>
       </c>
       <c r="I81" s="3">
         <v>11400</v>
       </c>
       <c r="J81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K81" s="3">
         <v>10900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>7200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>5900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>7100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>3300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>4200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5416,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5233,52 +5432,52 @@
         <v>700</v>
       </c>
       <c r="G83" s="3">
+        <v>700</v>
+      </c>
+      <c r="H83" s="3">
         <v>800</v>
-      </c>
-      <c r="H83" s="3">
-        <v>900</v>
       </c>
       <c r="I83" s="3">
         <v>900</v>
       </c>
       <c r="J83" s="3">
+        <v>900</v>
+      </c>
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>700</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
       </c>
       <c r="M83" s="3">
         <v>800</v>
       </c>
       <c r="N83" s="3">
+        <v>800</v>
+      </c>
+      <c r="O83" s="3">
         <v>700</v>
-      </c>
-      <c r="O83" s="3">
-        <v>400</v>
       </c>
       <c r="P83" s="3">
         <v>400</v>
       </c>
       <c r="Q83" s="3">
+        <v>400</v>
+      </c>
+      <c r="R83" s="3">
         <v>500</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T83" s="3">
-        <v>500</v>
+      <c r="T83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
+      <c r="V83" s="3">
+        <v>500</v>
       </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5840,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E89" s="3">
         <v>2500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>13000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>5500</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>6100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>21600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>3300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>21100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>13500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>6900</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>12900</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T89" s="3">
+      <c r="T89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>14000</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,76 +5940,80 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-2900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-1800</v>
       </c>
       <c r="L91" s="3">
         <v>-1800</v>
       </c>
       <c r="M91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="N91" s="3">
         <v>-3400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1500</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1800</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T91" s="3">
+      <c r="T91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U91" s="3">
         <v>-5600</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1200</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,76 +6151,82 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-103500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-186100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-95100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>22500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>19900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-41100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>12800</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-125500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-18600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-82700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-38200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>18700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-3900</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>16300</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T94" s="3">
+      <c r="T94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U94" s="3">
         <v>-14200</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>16400</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,22 +6251,23 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-1700</v>
+        <v>-1600</v>
       </c>
       <c r="E96" s="3">
         <v>-1700</v>
       </c>
       <c r="F96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-1600</v>
       </c>
       <c r="H96" s="3">
         <v>-1600</v>
@@ -6045,10 +6279,10 @@
         <v>-1600</v>
       </c>
       <c r="K96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="L96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1400</v>
       </c>
       <c r="M96" s="3">
         <v>-1400</v>
@@ -6057,7 +6291,7 @@
         <v>-1400</v>
       </c>
       <c r="O96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1300</v>
@@ -6066,19 +6300,19 @@
         <v>-1300</v>
       </c>
       <c r="R96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="S96" s="3">
         <v>0</v>
       </c>
       <c r="T96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="U96" s="3">
         <v>-1100</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,76 +6533,82 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>76400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>13400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-35500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>125900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>55000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-25100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>227500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-11600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>37200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>23800</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-5600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>43200</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T100" s="3">
+      <c r="T100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
         <v>-50100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>38900</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6675,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-63400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-189500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-3100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-10100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>91000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-96500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>123100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-32300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-31900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-7500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>72400</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="S102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T102" s="3">
+      <c r="T102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U102" s="3">
         <v>-64200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>67700</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,179 +665,186 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="3">
         <v>25800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>24200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>25000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>24900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>27100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>25900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>23300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>23800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>20200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>19700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>19800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>19500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19300</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>17400</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>12600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>11900</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +914,11 @@
       <c r="Y9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,8 +1164,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1218,19 +1238,22 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="E15" s="3">
         <v>-300</v>
       </c>
       <c r="F15" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G15" s="3">
         <v>-400</v>
@@ -1242,25 +1265,25 @@
         <v>-400</v>
       </c>
       <c r="J15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-500</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-400</v>
       </c>
       <c r="L15" s="3">
         <v>-400</v>
       </c>
       <c r="M15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N15" s="3">
         <v>-300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-400</v>
       </c>
       <c r="O15" s="3">
         <v>-400</v>
       </c>
       <c r="P15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="Q15" s="3">
         <v>-200</v>
@@ -1278,19 +1301,22 @@
         <v>-200</v>
       </c>
       <c r="V15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W15" s="3">
         <v>-100</v>
       </c>
-      <c r="W15" s="3">
-        <v>0</v>
-      </c>
       <c r="X15" s="3">
         <v>0</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,108 +1339,112 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="3">
         <v>2800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>3100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>8200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>5000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>2700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="3">
         <v>23000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>21100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>22600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>22300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>20900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>21500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>17700</v>
       </c>
       <c r="M18" s="3">
         <v>17700</v>
@@ -1423,40 +1453,43 @@
         <v>17700</v>
       </c>
       <c r="O18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="P18" s="3">
         <v>17300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>14900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>14600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>14800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>15800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>10300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>9900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,150 +1515,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="3">
         <v>-7600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-7500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-5600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-6000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-7100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-8800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-8000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-7300</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-6000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-7400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-8500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-4700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="3">
         <v>16000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>16000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>16500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>15300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>11700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>9600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>10500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>9000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>8100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>7900</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U21" s="3">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V21" s="3">
         <v>9800</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>6700</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,150 +1735,159 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E23" s="3">
         <v>15300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>13600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>15200</v>
       </c>
       <c r="I23" s="3">
         <v>15200</v>
       </c>
       <c r="J23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="K23" s="3">
         <v>15600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>14500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>11000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>8800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>9700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>8400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>7700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>7400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>9300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>6200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>5600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>6300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3600</v>
       </c>
       <c r="G24" s="3">
         <v>3600</v>
       </c>
       <c r="H24" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I24" s="3">
         <v>3700</v>
       </c>
       <c r="J24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K24" s="3">
         <v>4100</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>3500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>2700</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>2200</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1700</v>
       </c>
       <c r="P24" s="3">
         <v>1700</v>
       </c>
       <c r="Q24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R24" s="3">
         <v>2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>1400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>1600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>1400</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>2200</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>2900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1800</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2100</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,25 +1957,28 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="3">
         <v>11700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10200</v>
-      </c>
-      <c r="F26" s="3">
-        <v>11200</v>
       </c>
       <c r="G26" s="3">
         <v>11200</v>
       </c>
       <c r="H26" s="3">
-        <v>11500</v>
+        <v>11200</v>
       </c>
       <c r="I26" s="3">
         <v>11500</v>
@@ -1935,123 +1987,129 @@
         <v>11500</v>
       </c>
       <c r="K26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="L26" s="3">
         <v>11000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>7300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>7500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>6700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>6000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>6600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>5900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>7100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>3300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>3800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>4200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="3">
         <v>11600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10100</v>
-      </c>
-      <c r="F27" s="3">
-        <v>11100</v>
       </c>
       <c r="G27" s="3">
         <v>11100</v>
       </c>
       <c r="H27" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I27" s="3">
         <v>11500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>11400</v>
       </c>
       <c r="J27" s="3">
         <v>11400</v>
       </c>
       <c r="K27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L27" s="3">
         <v>10900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>8200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>7200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>7500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>6700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>6000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>6600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>5900</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>7100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>3300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>3800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>4200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2162,17 +2223,17 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>5</v>
+      <c r="P29" s="3">
+        <v>0</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="R29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
@@ -2180,8 +2241,8 @@
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="W29" s="3">
         <v>0</v>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,150 +2401,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="3">
         <v>7600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>7500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>5600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>6000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>7100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>8800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>8000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>7300</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>6000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>7400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>8500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>4700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>3600</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="3">
         <v>11600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10100</v>
-      </c>
-      <c r="F33" s="3">
-        <v>11100</v>
       </c>
       <c r="G33" s="3">
         <v>11100</v>
       </c>
       <c r="H33" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I33" s="3">
         <v>11500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>11400</v>
       </c>
       <c r="J33" s="3">
         <v>11400</v>
       </c>
       <c r="K33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L33" s="3">
         <v>10900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>8200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>7200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>7500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>6700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>6000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>6600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>5900</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>7100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>3300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>3800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>4200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2623,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="3">
         <v>11600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10100</v>
-      </c>
-      <c r="F35" s="3">
-        <v>11100</v>
       </c>
       <c r="G35" s="3">
         <v>11100</v>
       </c>
       <c r="H35" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I35" s="3">
         <v>11500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>11400</v>
       </c>
       <c r="J35" s="3">
         <v>11400</v>
       </c>
       <c r="K35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L35" s="3">
         <v>10900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>8200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>7200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>7500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>6700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>6000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>6600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>5900</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>7100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>3300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>3800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>4200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,150 +2834,157 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>45800</v>
+      </c>
+      <c r="E41" s="3">
         <v>33200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>28900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>29200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>32300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>29200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>26900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>34000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>27700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>33800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>45700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>19200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>29500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>41400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>25300</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="3">
         <v>20700</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>37900</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>156700</v>
+      </c>
+      <c r="E42" s="3">
         <v>75600</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>143100</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>321200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>321400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>275300</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>287500</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>187300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>102000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>195600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>75100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>97900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>104500</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>137600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>110400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>96300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>37800</v>
       </c>
-      <c r="T42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U42" s="3">
+      <c r="U42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V42" s="3">
         <v>44500</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>92800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3103,8 +3202,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,150 +3350,159 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E48" s="3">
         <v>50600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>50100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>49500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>44200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>43500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>43600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>43200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>41200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>39600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>36600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>35300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>32300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>28100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>26900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>24500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>23700</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>24300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>18600</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>138900</v>
+      </c>
+      <c r="E49" s="3">
         <v>65800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>64600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>64400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>64100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>65100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>65600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>52800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>53100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>54200</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>20000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>20200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>20300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20400</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V49" s="3">
         <v>20400</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20700</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,8 +3646,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3582,26 +3702,29 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>1800</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3794,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3640800</v>
+      </c>
+      <c r="E54" s="3">
         <v>2961000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2924900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2937600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2846600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2819000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2846200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2718000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2639200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2657900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2200300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2210200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2163500</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1806500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1805400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1793200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1735800</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V54" s="3">
         <v>1703600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1753400</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3867,8 +3998,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3991,26 +4128,29 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="X59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4080,13 +4220,16 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="E61" s="3">
         <v>17500</v>
@@ -4107,22 +4250,22 @@
         <v>17500</v>
       </c>
       <c r="K61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="L61" s="3">
         <v>45700</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>43700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>67400</v>
-      </c>
-      <c r="N61" s="3">
-        <v>68400</v>
       </c>
       <c r="O61" s="3">
         <v>68400</v>
       </c>
       <c r="P61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="Q61" s="3">
         <v>11500</v>
@@ -4131,28 +4274,31 @@
         <v>11500</v>
       </c>
       <c r="S61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="T61" s="3">
         <v>59500</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
       <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>20000</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4590,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3201300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2646900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2606600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2614900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2531300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2507500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2542800</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2423200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2353100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2381800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1962600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1980000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1938200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1621000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1626200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1618800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1566600</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V66" s="3">
         <v>1541800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1591700</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +4988,85 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>284900</v>
+      </c>
+      <c r="E72" s="3">
         <v>276600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>266600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>258100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>248600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>241200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>231300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>221400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>211500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>202100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>195300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>189500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>183600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>178300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>173600</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>168400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>162100</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V72" s="3">
         <v>151900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>145900</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5284,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>439400</v>
+      </c>
+      <c r="E76" s="3">
         <v>314200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>318300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>322700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>315300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>311400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>303400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>294900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>286100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>276100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>237700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>230200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>225300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>185400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>179200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>174300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>169100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V76" s="3">
         <v>161800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>161700</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5432,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E81" s="3">
         <v>11600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10100</v>
-      </c>
-      <c r="F81" s="3">
-        <v>11100</v>
       </c>
       <c r="G81" s="3">
         <v>11100</v>
       </c>
       <c r="H81" s="3">
+        <v>11100</v>
+      </c>
+      <c r="I81" s="3">
         <v>11500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>11400</v>
       </c>
       <c r="J81" s="3">
         <v>11400</v>
       </c>
       <c r="K81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="L81" s="3">
         <v>10900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>8200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>7200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>7500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>6700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>6000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>6600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>5900</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>7100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>3300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>3800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>4200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,13 +5615,14 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>700</v>
+        <v>1200</v>
       </c>
       <c r="E83" s="3">
         <v>700</v>
@@ -5435,52 +5634,52 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
         <v>800</v>
-      </c>
-      <c r="I83" s="3">
-        <v>900</v>
       </c>
       <c r="J83" s="3">
         <v>900</v>
       </c>
       <c r="K83" s="3">
+        <v>900</v>
+      </c>
+      <c r="L83" s="3">
         <v>800</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>700</v>
-      </c>
-      <c r="M83" s="3">
-        <v>800</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
       </c>
       <c r="O83" s="3">
+        <v>800</v>
+      </c>
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>400</v>
       </c>
       <c r="Q83" s="3">
         <v>400</v>
       </c>
       <c r="R83" s="3">
+        <v>400</v>
+      </c>
+      <c r="S83" s="3">
         <v>500</v>
       </c>
-      <c r="S83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U83" s="3">
-        <v>500</v>
+      <c r="U83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
+      <c r="W83" s="3">
+        <v>500</v>
       </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6057,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E89" s="3">
         <v>7600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>15600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>5500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>6100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>21600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>3300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>21100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>13500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>6900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>3600</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>12900</v>
       </c>
-      <c r="S89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U89" s="3">
+      <c r="U89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>14000</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,79 +6161,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-1100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1800</v>
       </c>
       <c r="M91" s="3">
         <v>-1800</v>
       </c>
       <c r="N91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="O91" s="3">
         <v>-3400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-1000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1800</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U91" s="3">
+      <c r="U91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V91" s="3">
         <v>-5600</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1200</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,79 +6381,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>150300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-103500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-186100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-95100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>22500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>19900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-41100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>12800</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-125500</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-18600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-82700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-38200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>18700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-3900</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>16300</v>
       </c>
-      <c r="S94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U94" s="3">
+      <c r="U94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V94" s="3">
         <v>-14200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>16400</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,25 +6485,26 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1600</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-1700</v>
       </c>
       <c r="F96" s="3">
         <v>-1700</v>
       </c>
       <c r="G96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="H96" s="3">
         <v>-3800</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1600</v>
       </c>
       <c r="I96" s="3">
         <v>-1600</v>
@@ -6282,10 +6516,10 @@
         <v>-1600</v>
       </c>
       <c r="L96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="M96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="M96" s="3">
-        <v>-1400</v>
       </c>
       <c r="N96" s="3">
         <v>-1400</v>
@@ -6294,7 +6528,7 @@
         <v>-1400</v>
       </c>
       <c r="P96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="Q96" s="3">
         <v>-1300</v>
@@ -6303,19 +6537,19 @@
         <v>-1300</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="T96" s="3">
         <v>0</v>
       </c>
       <c r="U96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="V96" s="3">
         <v>-1100</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,79 +6779,85 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="E100" s="3">
         <v>32600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>76400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>13400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-35500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>125900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>55000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-25100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>227500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-11600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>37200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>23800</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-5600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6800</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>43200</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U100" s="3">
+      <c r="U100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V100" s="3">
         <v>-50100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>38900</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,75 +6927,81 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>99500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-63400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-189500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>48900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-10100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>91000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-96500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>123100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-32300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-31900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-7500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>72400</v>
       </c>
-      <c r="S102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="T102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U102" s="3">
+      <c r="U102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V102" s="3">
         <v>-64200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>67700</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -774,8 +774,8 @@
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
+      <c r="D8" s="3">
+        <v>30700</v>
       </c>
       <c r="E8" s="3">
         <v>25800</v>
@@ -787,7 +787,7 @@
         <v>25000</v>
       </c>
       <c r="H8" s="3">
-        <v>24900</v>
+        <v>73300</v>
       </c>
       <c r="I8" s="3">
         <v>24000</v>
@@ -1259,7 +1259,7 @@
         <v>-400</v>
       </c>
       <c r="H15" s="3">
-        <v>-400</v>
+        <v>-1100</v>
       </c>
       <c r="I15" s="3">
         <v>-400</v>
@@ -1345,8 +1345,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>5</v>
+      <c r="D17" s="3">
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
         <v>2800</v>
@@ -1358,7 +1358,7 @@
         <v>2400</v>
       </c>
       <c r="H17" s="3">
-        <v>2600</v>
+        <v>9000</v>
       </c>
       <c r="I17" s="3">
         <v>3100</v>
@@ -1419,8 +1419,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>5</v>
+      <c r="D18" s="3">
+        <v>27700</v>
       </c>
       <c r="E18" s="3">
         <v>23000</v>
@@ -1432,7 +1432,7 @@
         <v>22600</v>
       </c>
       <c r="H18" s="3">
-        <v>22300</v>
+        <v>64300</v>
       </c>
       <c r="I18" s="3">
         <v>20900</v>
@@ -1521,8 +1521,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>5</v>
+      <c r="D20" s="3">
+        <v>-13700</v>
       </c>
       <c r="E20" s="3">
         <v>-7600</v>
@@ -1534,7 +1534,7 @@
         <v>-7900</v>
       </c>
       <c r="H20" s="3">
-        <v>-7400</v>
+        <v>-19100</v>
       </c>
       <c r="I20" s="3">
         <v>-5600</v>
@@ -1595,8 +1595,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>15100</v>
       </c>
       <c r="E21" s="3">
         <v>16000</v>
@@ -1608,7 +1608,7 @@
         <v>15500</v>
       </c>
       <c r="H21" s="3">
-        <v>15600</v>
+        <v>47700</v>
       </c>
       <c r="I21" s="3">
         <v>16100</v>
@@ -1756,7 +1756,7 @@
         <v>14700</v>
       </c>
       <c r="H23" s="3">
-        <v>14800</v>
+        <v>45300</v>
       </c>
       <c r="I23" s="3">
         <v>15200</v>
@@ -1830,7 +1830,7 @@
         <v>3600</v>
       </c>
       <c r="H24" s="3">
-        <v>3600</v>
+        <v>11000</v>
       </c>
       <c r="I24" s="3">
         <v>3700</v>
@@ -1965,8 +1965,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>5</v>
+      <c r="D26" s="3">
+        <v>10500</v>
       </c>
       <c r="E26" s="3">
         <v>11700</v>
@@ -1978,7 +1978,7 @@
         <v>11200</v>
       </c>
       <c r="H26" s="3">
-        <v>11200</v>
+        <v>34300</v>
       </c>
       <c r="I26" s="3">
         <v>11500</v>
@@ -2039,8 +2039,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>5</v>
+      <c r="D27" s="3">
+        <v>10500</v>
       </c>
       <c r="E27" s="3">
         <v>11600</v>
@@ -2052,7 +2052,7 @@
         <v>11100</v>
       </c>
       <c r="H27" s="3">
-        <v>11100</v>
+        <v>34000</v>
       </c>
       <c r="I27" s="3">
         <v>11500</v>
@@ -2409,8 +2409,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>5</v>
+      <c r="D32" s="3">
+        <v>13700</v>
       </c>
       <c r="E32" s="3">
         <v>7600</v>
@@ -2422,7 +2422,7 @@
         <v>7900</v>
       </c>
       <c r="H32" s="3">
-        <v>7400</v>
+        <v>19100</v>
       </c>
       <c r="I32" s="3">
         <v>5600</v>
@@ -2483,8 +2483,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>5</v>
+      <c r="D33" s="3">
+        <v>10500</v>
       </c>
       <c r="E33" s="3">
         <v>11600</v>
@@ -2496,7 +2496,7 @@
         <v>11100</v>
       </c>
       <c r="H33" s="3">
-        <v>11100</v>
+        <v>34000</v>
       </c>
       <c r="I33" s="3">
         <v>11500</v>
@@ -2631,8 +2631,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>5</v>
+      <c r="D35" s="3">
+        <v>10500</v>
       </c>
       <c r="E35" s="3">
         <v>11600</v>
@@ -2644,7 +2644,7 @@
         <v>11100</v>
       </c>
       <c r="H35" s="3">
-        <v>11100</v>
+        <v>34000</v>
       </c>
       <c r="I35" s="3">
         <v>11500</v>
@@ -2915,7 +2915,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>156700</v>
+        <v>158200</v>
       </c>
       <c r="E42" s="3">
         <v>75600</v>
@@ -5519,8 +5519,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>5</v>
+      <c r="D81" s="3">
+        <v>10500</v>
       </c>
       <c r="E81" s="3">
         <v>11600</v>
@@ -5532,7 +5532,7 @@
         <v>11100</v>
       </c>
       <c r="H81" s="3">
-        <v>11100</v>
+        <v>34000</v>
       </c>
       <c r="I81" s="3">
         <v>11500</v>
@@ -5634,7 +5634,7 @@
         <v>700</v>
       </c>
       <c r="H83" s="3">
-        <v>700</v>
+        <v>2400</v>
       </c>
       <c r="I83" s="3">
         <v>800</v>
@@ -6078,7 +6078,7 @@
         <v>15600</v>
       </c>
       <c r="H89" s="3">
-        <v>13000</v>
+        <v>24700</v>
       </c>
       <c r="I89" s="3">
         <v>5500</v>
@@ -6180,7 +6180,7 @@
         <v>-5800</v>
       </c>
       <c r="H91" s="3">
-        <v>-1100</v>
+        <v>-2900</v>
       </c>
       <c r="I91" s="3">
         <v>-600</v>
@@ -6402,7 +6402,7 @@
         <v>-95100</v>
       </c>
       <c r="H94" s="3">
-        <v>22500</v>
+        <v>1300</v>
       </c>
       <c r="I94" s="3">
         <v>19900</v>
@@ -6504,7 +6504,7 @@
         <v>-1700</v>
       </c>
       <c r="H96" s="3">
-        <v>-3800</v>
+        <v>-7100</v>
       </c>
       <c r="I96" s="3">
         <v>-1600</v>
@@ -6800,7 +6800,7 @@
         <v>76400</v>
       </c>
       <c r="H100" s="3">
-        <v>13400</v>
+        <v>103800</v>
       </c>
       <c r="I100" s="3">
         <v>-35500</v>
@@ -6948,7 +6948,7 @@
         <v>-3100</v>
       </c>
       <c r="H102" s="3">
-        <v>48900</v>
+        <v>129700</v>
       </c>
       <c r="I102" s="3">
         <v>-10100</v>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,186 +665,199 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>40900</v>
+      </c>
+      <c r="E8" s="3">
+        <v>35800</v>
+      </c>
+      <c r="F8" s="3">
         <v>30700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>25800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>24200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>25000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>73300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>24000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>24400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>27100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>25900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>24400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>23300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>23800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>25500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>20200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>19700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>19800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>19500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>19400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>19300</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>17400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>12600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>11900</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -917,8 +930,14 @@
       <c r="Z9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1010,14 @@
       <c r="Z10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1044,10 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1120,14 @@
       <c r="Z12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1200,14 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1241,55 +1280,61 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E15" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F15" s="3">
         <v>-800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>-300</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>-300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-1100</v>
       </c>
       <c r="I15" s="3">
         <v>-400</v>
       </c>
       <c r="J15" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-400</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-500</v>
       </c>
       <c r="L15" s="3">
         <v>-400</v>
       </c>
       <c r="M15" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N15" s="3">
         <v>-400</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-300</v>
       </c>
       <c r="O15" s="3">
         <v>-400</v>
       </c>
       <c r="P15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-400</v>
       </c>
-      <c r="Q15" s="3">
-        <v>-200</v>
-      </c>
       <c r="R15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="S15" s="3">
         <v>-200</v>
@@ -1304,19 +1349,25 @@
         <v>-200</v>
       </c>
       <c r="W15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y15" s="3">
         <v>-100</v>
       </c>
-      <c r="X15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="3">
-        <v>0</v>
-      </c>
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,156 +1391,170 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F17" s="3">
         <v>3000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>4400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>6700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>6100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>5000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>4800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>4500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>3500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2700</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>2300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>2000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>28100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>30200</v>
+      </c>
+      <c r="F18" s="3">
         <v>27700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>21100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>22600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>64300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>20900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>21200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>22800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>21500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>17700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>17700</v>
       </c>
       <c r="O18" s="3">
         <v>17700</v>
       </c>
       <c r="P18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="R18" s="3">
         <v>17300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>14900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>14600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>14800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>14700</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>14900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>15800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>14700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>10300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>9900</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,156 +1581,170 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-13400</v>
+      </c>
+      <c r="F20" s="3">
         <v>-13700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-7600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-7500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-7900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-19100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-5600</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-7200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-7100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-6700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-8800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-8000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-9000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-7300</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-6000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-7400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-7200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-7100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-6500</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-8500</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-4700</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-3600</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18200</v>
+      </c>
+      <c r="F21" s="3">
         <v>15100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>16000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>14300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>15500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>47700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>16100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>16000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>16500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>15300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>11700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>9600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>10500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>9000</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>8100</v>
       </c>
       <c r="R21" s="3">
         <v>9000</v>
       </c>
       <c r="S21" s="3">
+        <v>8100</v>
+      </c>
+      <c r="T21" s="3">
+        <v>9000</v>
+      </c>
+      <c r="U21" s="3">
         <v>7900</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V21" s="3">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X21" s="3">
         <v>9800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>6700</v>
       </c>
-      <c r="X21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1738,156 +1817,174 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>16800</v>
+      </c>
+      <c r="F23" s="3">
         <v>14000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>15300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>13600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>14700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>45300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>15200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>15200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>15600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>14500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>11000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>8800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>9700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>8400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>7700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>8600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>7400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>7500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>7800</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>9300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>6200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>5600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>6300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>3400</v>
+        <v>3600</v>
       </c>
       <c r="E24" s="3">
-        <v>3700</v>
+        <v>3900</v>
       </c>
       <c r="F24" s="3">
         <v>3400</v>
       </c>
       <c r="G24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H24" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I24" s="3">
         <v>3600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>3700</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>3700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>4100</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>3500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>2700</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>2200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>1700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>1700</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>2000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T24" s="3">
-        <v>1600</v>
       </c>
       <c r="U24" s="3">
         <v>1400</v>
       </c>
       <c r="V24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="W24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="X24" s="3">
         <v>2200</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>2900</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>1800</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>2100</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,156 +2057,174 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>10700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F26" s="3">
         <v>10500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>11700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>10200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>11200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>34300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>11500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>11500</v>
       </c>
       <c r="K26" s="3">
         <v>11500</v>
       </c>
       <c r="L26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="N26" s="3">
         <v>11000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>8300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>7300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>7500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>6700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>6000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>6600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>6100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>5900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>6400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>7100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>3300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>3800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>4200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E27" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F27" s="3">
         <v>10500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>11600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>10100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>11100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>34000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>11500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>11400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>10900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>8200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>7200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>7500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>6000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>6600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>6100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>5900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>6400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>7100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>3300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>3800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>4200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2297,14 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2226,29 +2347,29 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-      <c r="Q29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3">
+        <v>0</v>
       </c>
       <c r="V29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="W29" s="3">
-        <v>0</v>
-      </c>
-      <c r="X29" s="3">
-        <v>0</v>
+      <c r="W29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y29" s="3">
         <v>0</v>
@@ -2256,8 +2377,14 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2457,14 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,156 +2537,174 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>13400</v>
+      </c>
+      <c r="F32" s="3">
         <v>13700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>7600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>7500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>7900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>19100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>5600</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>7200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>7100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>6700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>8800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>8000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>9000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>7300</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>6000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>7400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>7200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>7100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>6500</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>8500</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>4700</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>3600</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E33" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F33" s="3">
         <v>10500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>11600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>10100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>11100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>34000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>11500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>11400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>11400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>10900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>8200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>7200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>7500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>6000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>6600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>6100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>5900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>6400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>7100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>3300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>3800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>4200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,161 +2777,179 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E35" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F35" s="3">
         <v>10500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>11600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>10100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>11100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>34000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>11500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>11400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>11400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>10900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>8200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>7200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>7500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>6000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>6600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>6100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>5900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>6400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>7100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>3300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>3800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>4200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2976,10 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,156 +3006,170 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>42700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>51500</v>
+      </c>
+      <c r="F41" s="3">
         <v>45800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>33200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>28900</v>
-      </c>
-      <c r="G41" s="3">
-        <v>29200</v>
-      </c>
-      <c r="H41" s="3">
-        <v>32300</v>
       </c>
       <c r="I41" s="3">
         <v>29200</v>
       </c>
       <c r="J41" s="3">
+        <v>32300</v>
+      </c>
+      <c r="K41" s="3">
+        <v>29200</v>
+      </c>
+      <c r="L41" s="3">
         <v>26900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>36300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>32500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>34000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>27700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>33800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>45700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>19200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>29500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>41400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>25300</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X41" s="3">
         <v>20700</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>37900</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>194900</v>
+      </c>
+      <c r="E42" s="3">
+        <v>129500</v>
+      </c>
+      <c r="F42" s="3">
         <v>158200</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>75600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>143100</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>321200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>321400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="K42" s="3">
         <v>275300</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>287500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>187300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>102000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>195600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>75100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>97900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>104500</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>137600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>110400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="U42" s="3">
         <v>96300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="V42" s="3">
         <v>37800</v>
       </c>
-      <c r="U42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X42" s="3">
         <v>44500</v>
       </c>
-      <c r="W42" s="3">
+      <c r="Y42" s="3">
         <v>92800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z42" s="3">
+      <c r="Z42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3057,8 +3242,14 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3131,8 +3322,14 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3205,8 +3402,14 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3279,8 +3482,14 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,156 +3562,174 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>56400</v>
+      </c>
+      <c r="F48" s="3">
         <v>57000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>50600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>50100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>49500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>44200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>43500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>43600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>43200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>41200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>39600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>36600</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>35300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>32300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>28100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>26900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>24500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>23700</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X48" s="3">
         <v>24300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>18600</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z48" s="3">
+      <c r="Z48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>221100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>136600</v>
+      </c>
+      <c r="F49" s="3">
         <v>138900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>65800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>64600</v>
-      </c>
-      <c r="G49" s="3">
-        <v>64400</v>
-      </c>
-      <c r="H49" s="3">
-        <v>64100</v>
       </c>
       <c r="I49" s="3">
         <v>64400</v>
       </c>
       <c r="J49" s="3">
+        <v>64100</v>
+      </c>
+      <c r="K49" s="3">
+        <v>64400</v>
+      </c>
+      <c r="L49" s="3">
         <v>64300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>64600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>65100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>65600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>52800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>53100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>54200</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>20000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>20200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>20300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>20400</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="V49" s="3">
         <v>20400</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X49" s="3">
+        <v>20400</v>
+      </c>
+      <c r="Y49" s="3">
         <v>20700</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3802,14 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3882,14 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3705,26 +3944,32 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
+      <c r="U52" s="3">
+        <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X52" s="3">
         <v>1800</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="Z52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,82 +4042,94 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4167200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3660400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3640800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2961000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2924900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2937600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2846600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2819000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2846200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2718000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2639200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2657900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2200300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2210200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2163500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1806500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1805400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1793200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1735800</v>
       </c>
-      <c r="U54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X54" s="3">
         <v>1703600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1753400</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4156,10 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4186,10 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4001,8 +4262,14 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4075,8 +4342,14 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4131,26 +4404,32 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
+      <c r="U59" s="3">
+        <v>0</v>
       </c>
       <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4223,19 +4502,25 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>34400</v>
+      </c>
+      <c r="E61" s="3">
         <v>23500</v>
       </c>
-      <c r="E61" s="3">
-        <v>17500</v>
-      </c>
       <c r="F61" s="3">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="G61" s="3">
         <v>17500</v>
@@ -4253,52 +4538,58 @@
         <v>17500</v>
       </c>
       <c r="L61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="M61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="N61" s="3">
         <v>45700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>43700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>67400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>68400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>68400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>11500</v>
-      </c>
-      <c r="R61" s="3">
-        <v>11500</v>
       </c>
       <c r="S61" s="3">
         <v>11500</v>
       </c>
       <c r="T61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="U61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="V61" s="3">
         <v>59500</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>0</v>
-      </c>
       <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
         <v>20000</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4371,8 +4662,14 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4742,14 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4822,14 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,82 +4902,94 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3604900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3207300</v>
+      </c>
+      <c r="F66" s="3">
         <v>3201300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2646900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2606600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2614900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2531300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2507500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2542800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2423200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2353100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2381800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>1962600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>1980000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>1938200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>1621000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1626200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>1618800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>1566600</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X66" s="3">
         <v>1541800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>1591700</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +5016,10 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +5092,14 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5172,14 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5252,14 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,82 +5332,94 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>293500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>295500</v>
+      </c>
+      <c r="F72" s="3">
         <v>284900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>276600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>266600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>258100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>248600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>241200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>231300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>221400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>211500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>202100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>195300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>189500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>183600</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>178300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>173600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>168400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>162100</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X72" s="3">
         <v>151900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>145900</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5492,14 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5572,14 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,82 +5652,94 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>562400</v>
+      </c>
+      <c r="E76" s="3">
+        <v>453100</v>
+      </c>
+      <c r="F76" s="3">
         <v>439400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>314200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>318300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>322700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>315300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>311400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>303400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>294900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>286100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>276100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>237700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>230200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>225300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>185400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>179200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>174300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>169100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X76" s="3">
         <v>161800</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>161700</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,161 +5812,179 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>10600</v>
+      </c>
+      <c r="E81" s="3">
+        <v>12800</v>
+      </c>
+      <c r="F81" s="3">
         <v>10500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>11600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>10100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>11100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>34000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>11500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>11400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>11400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>10900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>8200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>7200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>7500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>6000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>6600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>6100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>5900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>6400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>7100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>3300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>3800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>4200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,82 +6011,90 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1200</v>
-      </c>
-      <c r="E83" s="3">
-        <v>700</v>
-      </c>
-      <c r="F83" s="3">
-        <v>700</v>
       </c>
       <c r="G83" s="3">
         <v>700</v>
       </c>
       <c r="H83" s="3">
+        <v>700</v>
+      </c>
+      <c r="I83" s="3">
+        <v>700</v>
+      </c>
+      <c r="J83" s="3">
         <v>2400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
-      </c>
-      <c r="L83" s="3">
-        <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>700</v>
       </c>
       <c r="N83" s="3">
         <v>800</v>
       </c>
       <c r="O83" s="3">
+        <v>700</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
+        <v>800</v>
+      </c>
+      <c r="R83" s="3">
         <v>700</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>400</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>400</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>500</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V83" s="3">
+      <c r="V83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="X83" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +6167,14 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6247,14 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6327,14 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6407,14 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,82 +6487,94 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F89" s="3">
         <v>9900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>7600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>2500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>15600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>24700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>5500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>6100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>21600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>3300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>21100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>13500</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>6900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>3600</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>12900</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V89" s="3">
+      <c r="V89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X89" s="3">
         <v>100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>14000</v>
       </c>
-      <c r="X89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,82 +6601,90 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-3400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-900</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-1000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-5800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="M91" s="3">
         <v>-2900</v>
       </c>
-      <c r="I91" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="N91" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="P91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="R91" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="S91" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="T91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="V91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-1200</v>
       </c>
-      <c r="K91" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="T91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="X91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6757,14 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,82 +6837,94 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>205600</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-38600</v>
+      </c>
+      <c r="F94" s="3">
         <v>150300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-103500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-186100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-95100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>1300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>19900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-41100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>12800</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-74700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-125500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-18600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-82700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-38200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>18700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-3900</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>16300</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="V94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X94" s="3">
         <v>-14200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>16400</v>
       </c>
-      <c r="X94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,31 +6951,33 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2300</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="G96" s="3">
         <v>-1600</v>
       </c>
-      <c r="F96" s="3">
+      <c r="H96" s="3">
         <v>-1700</v>
       </c>
-      <c r="G96" s="3">
+      <c r="I96" s="3">
         <v>-1700</v>
       </c>
-      <c r="H96" s="3">
+      <c r="J96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-1600</v>
       </c>
       <c r="K96" s="3">
         <v>-1600</v>
@@ -6519,49 +6986,55 @@
         <v>-1600</v>
       </c>
       <c r="M96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="N96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="O96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-1400</v>
       </c>
       <c r="P96" s="3">
         <v>-1400</v>
       </c>
       <c r="Q96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="R96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="S96" s="3">
         <v>-1300</v>
       </c>
       <c r="T96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="U96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="V96" s="3">
+        <v>0</v>
+      </c>
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
         <v>-1100</v>
       </c>
-      <c r="W96" s="3">
+      <c r="Y96" s="3">
         <v>-1100</v>
       </c>
-      <c r="X96" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y96" s="3">
-        <v>0</v>
-      </c>
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +7107,14 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +7187,14 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,82 +7267,94 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-159300</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F100" s="3">
         <v>-60800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>32600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-5900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>76400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>103800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-35500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>125900</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>55000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-25100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>227500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>-11600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>37200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>23800</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-5600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>6800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>43200</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="V100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X100" s="3">
         <v>-50100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>38900</v>
       </c>
-      <c r="X100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,78 +7427,90 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>50300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-24100</v>
+      </c>
+      <c r="F102" s="3">
         <v>99500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-63400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-189500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-3100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>129700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>91000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>89500</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-96500</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>123100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-32300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-31900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-7500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>16700</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>72400</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V102" s="3">
+      <c r="V102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="X102" s="3">
         <v>-64200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>67700</v>
       </c>
-      <c r="X102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,199 +665,206 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>45900</v>
+      </c>
+      <c r="E8" s="3">
         <v>40900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>35800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>30700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>25800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>24200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>25000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>73300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>24000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>27100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>25900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>24400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>23300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>25500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>20200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>19700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19400</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19300</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>17400</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>12600</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>11900</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1223,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1286,58 +1306,61 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-1000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-800</v>
-      </c>
-      <c r="G15" s="3">
-        <v>-300</v>
       </c>
       <c r="H15" s="3">
         <v>-300</v>
       </c>
       <c r="I15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J15" s="3">
         <v>-400</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>-400</v>
       </c>
       <c r="L15" s="3">
         <v>-400</v>
       </c>
       <c r="M15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N15" s="3">
         <v>-500</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-400</v>
       </c>
       <c r="O15" s="3">
         <v>-400</v>
       </c>
       <c r="P15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="Q15" s="3">
         <v>-300</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>-400</v>
       </c>
       <c r="R15" s="3">
         <v>-400</v>
       </c>
       <c r="S15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="T15" s="3">
         <v>-200</v>
@@ -1355,19 +1378,22 @@
         <v>-200</v>
       </c>
       <c r="Y15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z15" s="3">
         <v>-100</v>
       </c>
-      <c r="Z15" s="3">
-        <v>0</v>
-      </c>
       <c r="AA15" s="3">
         <v>0</v>
       </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,126 +1419,130 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E17" s="3">
         <v>12900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>3000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>3100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>4300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>6700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>6100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4500</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34200</v>
+      </c>
+      <c r="E18" s="3">
         <v>28100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>30200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>27700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>21100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>22600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>64300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>20900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>21200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>22800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>21500</v>
-      </c>
-      <c r="O18" s="3">
-        <v>17700</v>
       </c>
       <c r="P18" s="3">
         <v>17700</v>
@@ -1521,40 +1551,43 @@
         <v>17700</v>
       </c>
       <c r="R18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="S18" s="3">
         <v>17300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>14900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14900</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>15800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>14700</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>10300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>9900</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,168 +1616,175 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-13800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13700</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-7600</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-19100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-6000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-7200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-7300</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-6000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-7400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7200</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7100</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-8500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-3600</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E21" s="3">
         <v>16200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>18200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>15100</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>16000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>14300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>15500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>16100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>15300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>11700</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>9600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>10500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>8100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>7900</v>
       </c>
-      <c r="V21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X21" s="3">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y21" s="3">
         <v>9800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>6700</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,168 +1863,177 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E23" s="3">
         <v>14200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>16800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>14000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>15300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>13600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>14700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>45300</v>
-      </c>
-      <c r="K23" s="3">
-        <v>15200</v>
       </c>
       <c r="L23" s="3">
         <v>15200</v>
       </c>
       <c r="M23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="N23" s="3">
         <v>15600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>14500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>11000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>8800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>9700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>8400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>7700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>8600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>7400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>9300</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>6200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>5600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>6300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E24" s="3">
         <v>3600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3700</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>11000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3700</v>
       </c>
       <c r="L24" s="3">
         <v>3700</v>
       </c>
       <c r="M24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="N24" s="3">
         <v>4100</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>3500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>2700</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>2200</v>
-      </c>
-      <c r="R24" s="3">
-        <v>1700</v>
       </c>
       <c r="S24" s="3">
         <v>1700</v>
       </c>
       <c r="T24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="U24" s="3">
         <v>2000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>1400</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1600</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1400</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>2200</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2900</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>1800</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>2100</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,34 +2112,37 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E26" s="3">
         <v>10700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>10500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>11700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>10200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>11200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>34300</v>
-      </c>
-      <c r="K26" s="3">
-        <v>11500</v>
       </c>
       <c r="L26" s="3">
         <v>11500</v>
@@ -2099,132 +2151,138 @@
         <v>11500</v>
       </c>
       <c r="N26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="O26" s="3">
         <v>11000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>7300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>6700</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>5900</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>6400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>7100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>3300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3800</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>4200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E27" s="3">
         <v>10600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>10500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>11600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>10100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>11100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>34000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>11500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>11400</v>
       </c>
       <c r="M27" s="3">
         <v>11400</v>
       </c>
       <c r="N27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O27" s="3">
         <v>10900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>7200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>5900</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>6400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>7100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>3300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3800</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>4200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2353,17 +2414,17 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-      <c r="S29" s="3" t="s">
-        <v>5</v>
+      <c r="S29" s="3">
+        <v>0</v>
       </c>
       <c r="T29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>5</v>
+      <c r="U29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
       </c>
       <c r="W29" s="3" t="s">
         <v>5</v>
@@ -2371,8 +2432,8 @@
       <c r="X29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y29" s="3">
-        <v>0</v>
+      <c r="Y29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z29" s="3">
         <v>0</v>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,168 +2610,177 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E32" s="3">
         <v>13800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13700</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>7600</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>19100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>6000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>7200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>8800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>7300</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>6000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>7400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7200</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7100</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>6500</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>8500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>4700</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>3600</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E33" s="3">
         <v>10600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>10500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>11600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>10100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>11100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>34000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>11500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>11400</v>
       </c>
       <c r="M33" s="3">
         <v>11400</v>
       </c>
       <c r="N33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O33" s="3">
         <v>10900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>7200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>5900</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>6400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>7100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>3300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3800</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>4200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2859,182 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E35" s="3">
         <v>10600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>10500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>11600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>10100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>11100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>34000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>11500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>11400</v>
       </c>
       <c r="M35" s="3">
         <v>11400</v>
       </c>
       <c r="N35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O35" s="3">
         <v>10900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>7200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>5900</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>6400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>7100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>3300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3800</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>4200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,168 +3094,175 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>50100</v>
+      </c>
+      <c r="E41" s="3">
         <v>42700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>51500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>45800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>33200</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>28900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>29200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>32300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>29200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>26900</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>36300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>32500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>34000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>27700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>33800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>45700</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>19200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>29500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>41400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>25300</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y41" s="3">
         <v>20700</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>37900</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>129100</v>
+      </c>
+      <c r="E42" s="3">
         <v>194900</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>129500</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>158200</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>75600</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>143100</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>321200</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>321400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>275300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>287500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>187300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>102000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>195600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>75100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>97900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>104500</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>137600</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>110400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>96300</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>37800</v>
       </c>
-      <c r="W42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X42" s="3">
+      <c r="X42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y42" s="3">
         <v>44500</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="Z42" s="3">
         <v>92800</v>
       </c>
-      <c r="Z42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AB42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3248,8 +3341,11 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3408,8 +3507,11 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,168 +3673,177 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>67000</v>
+      </c>
+      <c r="E48" s="3">
         <v>63700</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>56400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>57000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>50600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>49500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>44200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>43500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>41200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>39600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>36600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>35300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>32300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>28100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>26900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>24500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>23700</v>
       </c>
-      <c r="W48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X48" s="3">
+      <c r="X48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y48" s="3">
         <v>24300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>18600</v>
       </c>
-      <c r="Z48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AB48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>218800</v>
+      </c>
+      <c r="E49" s="3">
         <v>221100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>136600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>138900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>65800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>64600</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>65100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>65600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>52800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>53100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>54200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>20000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20200</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20400</v>
       </c>
-      <c r="W49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X49" s="3">
+      <c r="X49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y49" s="3">
         <v>20400</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>20700</v>
       </c>
-      <c r="Z49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB49" s="3">
+      <c r="AB49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4005,11 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3950,26 +4070,29 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X52" s="3">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y52" s="3">
         <v>1800</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AB52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4171,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4092100</v>
+      </c>
+      <c r="E54" s="3">
         <v>4167200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3660400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3640800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2961000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2924900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2937600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2846600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2819000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2846200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2718000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2639200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2657900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2200300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2210200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2163500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1806500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1805400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1793200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1735800</v>
       </c>
-      <c r="W54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X54" s="3">
+      <c r="X54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y54" s="3">
         <v>1703600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>1753400</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4268,8 +4399,11 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4410,26 +4547,29 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4517,13 +4660,13 @@
         <v>34400</v>
       </c>
       <c r="E61" s="3">
-        <v>23500</v>
+        <v>34400</v>
       </c>
       <c r="F61" s="3">
         <v>23500</v>
       </c>
       <c r="G61" s="3">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="H61" s="3">
         <v>17500</v>
@@ -4544,22 +4687,22 @@
         <v>17500</v>
       </c>
       <c r="N61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="O61" s="3">
         <v>45700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>43700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>67400</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>68400</v>
       </c>
       <c r="R61" s="3">
         <v>68400</v>
       </c>
       <c r="S61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="T61" s="3">
         <v>11500</v>
@@ -4568,28 +4711,31 @@
         <v>11500</v>
       </c>
       <c r="V61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="W61" s="3">
         <v>59500</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
         <v>0</v>
       </c>
       <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
         <v>20000</v>
       </c>
-      <c r="Z61" s="3">
-        <v>0</v>
-      </c>
       <c r="AA61" s="3">
         <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5063,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3521200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3604900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3207300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3201300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2646900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2606600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2614900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2531300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2507500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2542800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2423200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2353100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2381800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1962600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1980000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1938200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1621000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1626200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1618800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1566600</v>
       </c>
-      <c r="W66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y66" s="3">
         <v>1541800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>1591700</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5509,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>304500</v>
+      </c>
+      <c r="E72" s="3">
         <v>293500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>295500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>284900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>276600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>266600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>258100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>248600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>241200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>231300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>221400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>211500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>202100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>195300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>189500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>183600</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>178300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>173600</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>168400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>162100</v>
       </c>
-      <c r="W72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y72" s="3">
         <v>151900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>145900</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5841,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>570900</v>
+      </c>
+      <c r="E76" s="3">
         <v>562400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>453100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>439400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>314200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>318300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>322700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>315300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>311400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>303400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>294900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>286100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>276100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>237700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>230200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>225300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>185400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>179200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>174300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>169100</v>
       </c>
-      <c r="W76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="X76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y76" s="3">
         <v>161800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>161700</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6007,182 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E81" s="3">
         <v>10600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>10500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>11600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>10100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>11100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>34000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>11500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>11400</v>
       </c>
       <c r="M81" s="3">
         <v>11400</v>
       </c>
       <c r="N81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="O81" s="3">
         <v>10900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>7200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>5900</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>6400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>7100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>3300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3800</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>4200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,22 +6211,23 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>1900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
-      </c>
-      <c r="G83" s="3">
-        <v>700</v>
       </c>
       <c r="H83" s="3">
         <v>700</v>
@@ -6037,55 +6236,55 @@
         <v>700</v>
       </c>
       <c r="J83" s="3">
+        <v>700</v>
+      </c>
+      <c r="K83" s="3">
         <v>2400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>800</v>
-      </c>
-      <c r="L83" s="3">
-        <v>900</v>
       </c>
       <c r="M83" s="3">
         <v>900</v>
       </c>
       <c r="N83" s="3">
+        <v>900</v>
+      </c>
+      <c r="O83" s="3">
         <v>800</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>700</v>
-      </c>
-      <c r="P83" s="3">
-        <v>800</v>
       </c>
       <c r="Q83" s="3">
         <v>800</v>
       </c>
       <c r="R83" s="3">
+        <v>800</v>
+      </c>
+      <c r="S83" s="3">
         <v>700</v>
-      </c>
-      <c r="S83" s="3">
-        <v>400</v>
       </c>
       <c r="T83" s="3">
         <v>400</v>
       </c>
       <c r="U83" s="3">
+        <v>400</v>
+      </c>
+      <c r="V83" s="3">
         <v>500</v>
       </c>
-      <c r="V83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X83" s="3">
-        <v>500</v>
+      <c r="X83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Y83" s="3">
         <v>500</v>
       </c>
-      <c r="Z83" s="3" t="s">
-        <v>5</v>
+      <c r="Z83" s="3">
+        <v>500</v>
       </c>
       <c r="AA83" s="3" t="s">
         <v>5</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6707,94 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E89" s="3">
         <v>4100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>20000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>9900</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>7600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>2500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>15600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>24700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>5500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>6100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>21600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>3300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>21100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>13500</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>6900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>3600</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>12900</v>
       </c>
-      <c r="V89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X89" s="3">
+      <c r="X89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y89" s="3">
         <v>100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>14000</v>
       </c>
-      <c r="Z89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,88 +6823,92 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-1100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-2900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-1800</v>
       </c>
       <c r="P91" s="3">
         <v>-1800</v>
       </c>
       <c r="Q91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="R91" s="3">
         <v>-3400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-1400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1500</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1800</v>
       </c>
-      <c r="V91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X91" s="3">
+      <c r="X91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,88 +7070,94 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E94" s="3">
         <v>205600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-38600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>150300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-103500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-186100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-95100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>1300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>19900</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-41100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>12800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-74700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-125500</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-82700</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-38200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>18700</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-3900</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>16300</v>
       </c>
-      <c r="V94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X94" s="3">
+      <c r="X94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>16400</v>
       </c>
-      <c r="Z94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,34 +7186,35 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="E96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="E96" s="3">
-        <v>-2300</v>
       </c>
       <c r="F96" s="3">
         <v>-2300</v>
       </c>
       <c r="G96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="H96" s="3">
         <v>-1600</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-1700</v>
       </c>
       <c r="I96" s="3">
         <v>-1700</v>
       </c>
       <c r="J96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="K96" s="3">
-        <v>-1600</v>
       </c>
       <c r="L96" s="3">
         <v>-1600</v>
@@ -6992,10 +7226,10 @@
         <v>-1600</v>
       </c>
       <c r="O96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-1400</v>
       </c>
       <c r="Q96" s="3">
         <v>-1400</v>
@@ -7004,7 +7238,7 @@
         <v>-1400</v>
       </c>
       <c r="S96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="T96" s="3">
         <v>-1300</v>
@@ -7013,19 +7247,19 @@
         <v>-1300</v>
       </c>
       <c r="V96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="W96" s="3">
         <v>0</v>
       </c>
       <c r="X96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Y96" s="3">
         <v>-1100</v>
       </c>
       <c r="Z96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="AA96" s="3">
         <v>0</v>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,88 +7516,94 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-85600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-159300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-60800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>32600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>76400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>103800</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-35500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>125900</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>55000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-25100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>227500</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-11600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>37200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>23800</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-5600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6800</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>43200</v>
       </c>
-      <c r="V100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X100" s="3">
+      <c r="X100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-50100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>38900</v>
       </c>
-      <c r="Z100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7682,90 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="E102" s="3">
         <v>50300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-24100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>99500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-63400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-189500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>129700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>91000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-96500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>123100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-32300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-31900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-7500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16700</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>1400</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>72400</v>
       </c>
-      <c r="V102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="W102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X102" s="3">
+      <c r="X102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-64200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>67700</v>
       </c>
-      <c r="Z102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC102" s="3" t="s">
         <v>5</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/BFC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="92">
   <si>
     <t>BFC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,213 @@
     <col min="1" max="1" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>47000</v>
+      </c>
+      <c r="E8" s="3">
         <v>45900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>40900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>35800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>30700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>25800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>24200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>25000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>73300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>24000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>24400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>27100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>25900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>24400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>23300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>23800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>25500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>20200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>19700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>19800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>19500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>19400</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>19300</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>17400</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>12600</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>11900</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>11500</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1309,61 +1329,64 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E15" s="3">
         <v>-1700</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>-1400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>-1000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>-800</v>
-      </c>
-      <c r="H15" s="3">
-        <v>-300</v>
       </c>
       <c r="I15" s="3">
         <v>-300</v>
       </c>
       <c r="J15" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>-400</v>
       </c>
       <c r="M15" s="3">
         <v>-400</v>
       </c>
       <c r="N15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="O15" s="3">
         <v>-500</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-400</v>
       </c>
       <c r="P15" s="3">
         <v>-400</v>
       </c>
       <c r="Q15" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R15" s="3">
         <v>-300</v>
-      </c>
-      <c r="R15" s="3">
-        <v>-400</v>
       </c>
       <c r="S15" s="3">
         <v>-400</v>
       </c>
       <c r="T15" s="3">
-        <v>-200</v>
+        <v>-400</v>
       </c>
       <c r="U15" s="3">
         <v>-200</v>
@@ -1381,19 +1404,22 @@
         <v>-200</v>
       </c>
       <c r="Z15" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA15" s="3">
         <v>-100</v>
       </c>
-      <c r="AA15" s="3">
-        <v>0</v>
-      </c>
       <c r="AB15" s="3">
         <v>0</v>
       </c>
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,132 +1446,136 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12900</v>
+      </c>
+      <c r="E17" s="3">
         <v>11700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>12900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>3100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>9000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>6700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>6100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5300</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>5100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>5000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>4800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>4500</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>2300</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>2000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1800</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>34100</v>
+      </c>
+      <c r="E18" s="3">
         <v>34200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>28100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>30200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>27700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>21100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>22600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>64300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>20900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>21200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>22800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>21500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>17700</v>
       </c>
       <c r="Q18" s="3">
         <v>17700</v>
@@ -1554,40 +1584,43 @@
         <v>17700</v>
       </c>
       <c r="S18" s="3">
+        <v>17700</v>
+      </c>
+      <c r="T18" s="3">
         <v>17300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>14900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>14600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>14800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>14700</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>14900</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>15800</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>14700</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>10300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>9900</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,174 +1650,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-15400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-13800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-13400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-13700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-7600</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-7500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-7900</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-19100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-6000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-7200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-7100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-8800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-8000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-7300</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-6000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-7400</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-7200</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-7100</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-8500</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-4700</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-3600</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-3700</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E21" s="3">
         <v>21100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>16200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>18200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>15100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>16000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>14300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>15500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>16100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>16000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>16500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>15300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>11700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>9600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>10500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>8100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>7900</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Y21" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z21" s="3">
         <v>9800</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>6700</v>
       </c>
-      <c r="AA21" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB21" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,174 +1906,183 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E23" s="3">
         <v>18900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>14200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>16800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>14000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>15300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>13600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>14700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>45300</v>
-      </c>
-      <c r="L23" s="3">
-        <v>15200</v>
       </c>
       <c r="M23" s="3">
         <v>15200</v>
       </c>
       <c r="N23" s="3">
+        <v>15200</v>
+      </c>
+      <c r="O23" s="3">
         <v>15600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>14500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>11000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>8800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>9700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>8400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>7700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>8600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>7400</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>7500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>7800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>9300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>6200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>5600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>6300</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E24" s="3">
         <v>4700</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>3600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>3900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>3400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>3700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>3400</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>3600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3700</v>
       </c>
       <c r="M24" s="3">
         <v>3700</v>
       </c>
       <c r="N24" s="3">
+        <v>3700</v>
+      </c>
+      <c r="O24" s="3">
         <v>4100</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>3500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>2700</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>1600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>2200</v>
-      </c>
-      <c r="S24" s="3">
-        <v>1700</v>
       </c>
       <c r="T24" s="3">
         <v>1700</v>
       </c>
       <c r="U24" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V24" s="3">
         <v>2000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>1400</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>1600</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>1400</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>2200</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>2900</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>1800</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>2100</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,37 +2164,40 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>14800</v>
+      </c>
+      <c r="E26" s="3">
         <v>14100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>10700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>10500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>11700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>10200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>11200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>34300</v>
-      </c>
-      <c r="L26" s="3">
-        <v>11500</v>
       </c>
       <c r="M26" s="3">
         <v>11500</v>
@@ -2154,135 +2206,141 @@
         <v>11500</v>
       </c>
       <c r="O26" s="3">
+        <v>11500</v>
+      </c>
+      <c r="P26" s="3">
         <v>11000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>7300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>7500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>6700</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>6000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>6600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>6100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>5900</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>6400</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>7100</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>3300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>3800</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>4200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E27" s="3">
         <v>14100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>10600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>10500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>11600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>10100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>11100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>34000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>11500</v>
-      </c>
-      <c r="M27" s="3">
-        <v>11400</v>
       </c>
       <c r="N27" s="3">
         <v>11400</v>
       </c>
       <c r="O27" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P27" s="3">
         <v>10900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>8200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>7200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>7500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>6700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>6000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>6600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>6100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>5900</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>6400</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>7100</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>3300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>3800</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>4200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2417,17 +2478,17 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-      <c r="T29" s="3" t="s">
-        <v>5</v>
+      <c r="T29" s="3">
+        <v>0</v>
       </c>
       <c r="U29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V29" s="3">
-        <v>0</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>5</v>
+      <c r="V29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
       </c>
       <c r="X29" s="3" t="s">
         <v>5</v>
@@ -2435,8 +2496,8 @@
       <c r="Y29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Z29" s="3">
-        <v>0</v>
+      <c r="Z29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="AA29" s="3">
         <v>0</v>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,174 +2680,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E32" s="3">
         <v>15400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>13800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>13400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>13700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>7600</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>7500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>7900</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>19100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>6000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>7200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>7100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>6700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>8800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>8000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>7300</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>6000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>7400</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>7200</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>7100</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>6500</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>8500</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>4700</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>3600</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>3700</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E33" s="3">
         <v>14100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>10600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>10500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>11600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>10100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>11100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>34000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>11500</v>
-      </c>
-      <c r="M33" s="3">
-        <v>11400</v>
       </c>
       <c r="N33" s="3">
         <v>11400</v>
       </c>
       <c r="O33" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P33" s="3">
         <v>10900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>8200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>7200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>7500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>6700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>6000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>6600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>6100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>5900</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>6400</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>7100</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>3300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>3800</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>4200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E35" s="3">
         <v>14100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>10600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>10500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>11600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>10100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>11100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>34000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>11500</v>
-      </c>
-      <c r="M35" s="3">
-        <v>11400</v>
       </c>
       <c r="N35" s="3">
         <v>11400</v>
       </c>
       <c r="O35" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P35" s="3">
         <v>10900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>8200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>7200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>7500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>6700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>6000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>6600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>6100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>5900</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>6400</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>7100</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>3300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>3800</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>4200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,174 +3181,181 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E41" s="3">
         <v>50100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>42700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>45800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>33200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>28900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>29200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>32300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>29200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>26900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>36300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>32500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>34000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>27700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>33800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>45700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>19200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>29500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>41400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>25300</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Y41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z41" s="3">
         <v>20700</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>37900</v>
       </c>
-      <c r="AA41" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB41" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" s="3">
         <v>21100</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>97900</v>
+      </c>
+      <c r="E42" s="3">
         <v>129100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>194900</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>129500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>158200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>75600</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>143100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>321200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>321400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>275300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>287500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>187300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>102000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>195600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>75100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>97900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>104500</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>137600</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>110400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>96300</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>37800</v>
       </c>
-      <c r="X42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y42" s="3">
+      <c r="Y42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z42" s="3">
         <v>44500</v>
       </c>
-      <c r="Z42" s="3">
+      <c r="AA42" s="3">
         <v>92800</v>
       </c>
-      <c r="AA42" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB42" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AC42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD42" s="3">
         <v>49500</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3510,8 +3609,11 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,174 +3781,183 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E48" s="3">
         <v>67000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>63700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>56400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>57000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>50600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>50100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>49500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>44200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>43500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>43600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>43200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>41200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>39600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>36600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>35300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>28100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>26900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>24500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>23700</v>
       </c>
-      <c r="X48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y48" s="3">
+      <c r="Y48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z48" s="3">
         <v>24300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>18600</v>
       </c>
-      <c r="AA48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AC48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" s="3">
         <v>13800</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>217400</v>
+      </c>
+      <c r="E49" s="3">
         <v>218800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>221100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>136600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>138900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>65800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>64600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>64400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>64100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>64400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>64300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>64600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>65100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>65600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>52800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>53100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>54200</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>20000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>20200</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>20300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>20400</v>
       </c>
-      <c r="X49" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z49" s="3">
         <v>20400</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>20700</v>
       </c>
-      <c r="AA49" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB49" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD49" s="3">
         <v>10400</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4125,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4073,26 +4193,29 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y52" s="3">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z52" s="3">
         <v>1800</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA52" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AC52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD52" s="3">
         <v>1900</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4087500</v>
+      </c>
+      <c r="E54" s="3">
         <v>4092100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4167200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3660400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3640800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2961000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2924900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2937600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2846600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2819000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2846200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2718000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2639200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2657900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2200300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2210200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2163500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1806500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1805400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1793200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1735800</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Y54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z54" s="3">
         <v>1703600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>1753400</v>
       </c>
-      <c r="AA54" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB54" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD54" s="3">
         <v>1286600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4402,8 +4533,11 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4550,26 +4687,29 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AA59" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AB59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD59" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4651,25 +4791,28 @@
       <c r="AC60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>34400</v>
+        <v>34500</v>
       </c>
       <c r="E61" s="3">
         <v>34400</v>
       </c>
       <c r="F61" s="3">
-        <v>23500</v>
+        <v>34400</v>
       </c>
       <c r="G61" s="3">
         <v>23500</v>
       </c>
       <c r="H61" s="3">
-        <v>17500</v>
+        <v>23500</v>
       </c>
       <c r="I61" s="3">
         <v>17500</v>
@@ -4690,22 +4833,22 @@
         <v>17500</v>
       </c>
       <c r="O61" s="3">
+        <v>17500</v>
+      </c>
+      <c r="P61" s="3">
         <v>45700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>43700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>67400</v>
-      </c>
-      <c r="R61" s="3">
-        <v>68400</v>
       </c>
       <c r="S61" s="3">
         <v>68400</v>
       </c>
       <c r="T61" s="3">
-        <v>11500</v>
+        <v>68400</v>
       </c>
       <c r="U61" s="3">
         <v>11500</v>
@@ -4714,28 +4857,31 @@
         <v>11500</v>
       </c>
       <c r="W61" s="3">
+        <v>11500</v>
+      </c>
+      <c r="X61" s="3">
         <v>59500</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
         <v>0</v>
       </c>
       <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
         <v>20000</v>
       </c>
-      <c r="AA61" s="3">
-        <v>0</v>
-      </c>
       <c r="AB61" s="3">
         <v>0</v>
       </c>
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3510200</v>
+      </c>
+      <c r="E66" s="3">
         <v>3521200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3604900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3207300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3201300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2646900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2606600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2614900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2531300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2507500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2542800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2423200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2353100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2381800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1962600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1980000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1938200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>1621000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>1626200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>1618800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>1566600</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Y66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z66" s="3">
         <v>1541800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1591700</v>
       </c>
-      <c r="AA66" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD66" s="3">
         <v>1156300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>316200</v>
+      </c>
+      <c r="E72" s="3">
         <v>304500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>293500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>295500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>284900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>276600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>266600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>258100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>248600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>241200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>231300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>221400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>211500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>202100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>195300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>189500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>183600</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>178300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>173600</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>168400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>162100</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Y72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z72" s="3">
         <v>151900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>145900</v>
       </c>
-      <c r="AA72" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD72" s="3">
         <v>137800</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>577300</v>
+      </c>
+      <c r="E76" s="3">
         <v>570900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>562400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>453100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>439400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>314200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>318300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>322700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>315300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>311400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>303400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>294900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>286100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>276100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>237700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>230200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>225300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>185400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>179200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>174300</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>169100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Y76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z76" s="3">
         <v>161800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>161700</v>
       </c>
-      <c r="AA76" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD76" s="3">
         <v>130300</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E81" s="3">
         <v>14100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>10600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>10500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>11600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>10100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>11100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>34000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>11500</v>
-      </c>
-      <c r="M81" s="3">
-        <v>11400</v>
       </c>
       <c r="N81" s="3">
         <v>11400</v>
       </c>
       <c r="O81" s="3">
+        <v>11400</v>
+      </c>
+      <c r="P81" s="3">
         <v>10900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>8200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>7200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>7500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>6700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>6000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>6600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>6100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>5900</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>6400</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>7100</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>3300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>3800</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>4200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,25 +6410,26 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1200</v>
-      </c>
-      <c r="H83" s="3">
-        <v>700</v>
       </c>
       <c r="I83" s="3">
         <v>700</v>
@@ -6239,55 +6438,55 @@
         <v>700</v>
       </c>
       <c r="K83" s="3">
+        <v>700</v>
+      </c>
+      <c r="L83" s="3">
         <v>2400</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>800</v>
-      </c>
-      <c r="M83" s="3">
-        <v>900</v>
       </c>
       <c r="N83" s="3">
         <v>900</v>
       </c>
       <c r="O83" s="3">
+        <v>900</v>
+      </c>
+      <c r="P83" s="3">
         <v>800</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>700</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>800</v>
       </c>
       <c r="R83" s="3">
         <v>800</v>
       </c>
       <c r="S83" s="3">
+        <v>800</v>
+      </c>
+      <c r="T83" s="3">
         <v>700</v>
-      </c>
-      <c r="T83" s="3">
-        <v>400</v>
       </c>
       <c r="U83" s="3">
         <v>400</v>
       </c>
       <c r="V83" s="3">
+        <v>400</v>
+      </c>
+      <c r="W83" s="3">
         <v>500</v>
       </c>
-      <c r="W83" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X83" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y83" s="3">
-        <v>500</v>
+      <c r="Y83" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Z83" s="3">
         <v>500</v>
       </c>
-      <c r="AA83" s="3" t="s">
-        <v>5</v>
+      <c r="AA83" s="3">
+        <v>500</v>
       </c>
       <c r="AB83" s="3" t="s">
         <v>5</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>4100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>20000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>9900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>7600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>2500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>15600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>24700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>5500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>6100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>21600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>3300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>21100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>13500</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>6900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>3600</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>12900</v>
       </c>
-      <c r="W89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Y89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>14000</v>
       </c>
-      <c r="AA89" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB89" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC89" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,91 +7044,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-5800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-2900</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1900</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-1800</v>
       </c>
       <c r="Q91" s="3">
         <v>-1800</v>
       </c>
       <c r="R91" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="S91" s="3">
         <v>-3400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1500</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-1000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-1800</v>
       </c>
-      <c r="W91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Y91" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-5600</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-1200</v>
       </c>
-      <c r="AA91" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB91" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC91" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="E94" s="3">
         <v>16200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>205600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-38600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>150300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-103500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-186100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-95100</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>19900</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-41100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>12800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-125500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-18600</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-82700</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-38200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>18700</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-3900</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>16300</v>
       </c>
-      <c r="W94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Y94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-14200</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>16400</v>
       </c>
-      <c r="AA94" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB94" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC94" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7196,28 +7430,28 @@
         <v>-3100</v>
       </c>
       <c r="E96" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="F96" s="3">
         <v>-2600</v>
-      </c>
-      <c r="F96" s="3">
-        <v>-2300</v>
       </c>
       <c r="G96" s="3">
         <v>-2300</v>
       </c>
       <c r="H96" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="I96" s="3">
         <v>-1600</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-1700</v>
       </c>
       <c r="J96" s="3">
         <v>-1700</v>
       </c>
       <c r="K96" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="L96" s="3">
         <v>-7100</v>
-      </c>
-      <c r="L96" s="3">
-        <v>-1600</v>
       </c>
       <c r="M96" s="3">
         <v>-1600</v>
@@ -7229,10 +7463,10 @@
         <v>-1600</v>
       </c>
       <c r="P96" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-1500</v>
-      </c>
-      <c r="Q96" s="3">
-        <v>-1400</v>
       </c>
       <c r="R96" s="3">
         <v>-1400</v>
@@ -7241,7 +7475,7 @@
         <v>-1400</v>
       </c>
       <c r="T96" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="U96" s="3">
         <v>-1300</v>
@@ -7250,19 +7484,19 @@
         <v>-1300</v>
       </c>
       <c r="W96" s="3">
-        <v>0</v>
+        <v>-1300</v>
       </c>
       <c r="X96" s="3">
         <v>0</v>
       </c>
       <c r="Y96" s="3">
-        <v>-1100</v>
+        <v>0</v>
       </c>
       <c r="Z96" s="3">
         <v>-1100</v>
       </c>
       <c r="AA96" s="3">
-        <v>0</v>
+        <v>-1100</v>
       </c>
       <c r="AB96" s="3">
         <v>0</v>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,91 +7762,97 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-85600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-159300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-60800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>32600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>76400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>103800</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-35500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>125900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>55000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-25100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>227500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-11600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>37200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>23800</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-5600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>6800</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>43200</v>
       </c>
-      <c r="W100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Y100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z100" s="3">
         <v>-50100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>38900</v>
       </c>
-      <c r="AA100" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB100" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC100" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35600</v>
+      </c>
+      <c r="E102" s="3">
         <v>-58400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>50300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-24100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>99500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-63400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-189500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>129700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>91000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>89500</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-96500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>123100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-32300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-31900</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-7500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>16700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>72400</v>
       </c>
-      <c r="W102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="X102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Y102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z102" s="3">
         <v>-64200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>67700</v>
       </c>
-      <c r="AA102" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="AB102" s="3" t="s">
         <v>5</v>
       </c>
       <c r="AC102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD102" s="3" t="s">
         <v>5</v>
       </c>
     </row>
